--- a/gd/副本内容设计/第三、四章美术需求.xlsx
+++ b/gd/副本内容设计/第三、四章美术需求.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuuki\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\副本内容设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="规范" sheetId="1" r:id="rId1"/>
-    <sheet name="xgPiying2——换色" sheetId="2" r:id="rId2"/>
-    <sheet name="xgMomo1——修改" sheetId="3" r:id="rId3"/>
+    <sheet name="xgLongnv3——新增大招" sheetId="4" r:id="rId2"/>
+    <sheet name="xgPiying2——换色" sheetId="2" r:id="rId3"/>
+    <sheet name="xgMomo1——修改" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="104">
   <si>
     <t>id</t>
   </si>
@@ -575,22 +576,10 @@
     <t>参考图</t>
   </si>
   <si>
-    <t>新增</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>xgPiying2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>大招</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>群体法术木属性伤害附加概率眩晕（自动）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>修改</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -600,6 +589,37 @@
   </si>
   <si>
     <t>原动作略不搭（建议修改）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无新增动作需求</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgLongnv3</t>
+  </si>
+  <si>
+    <t>群体法术水属性伤害附加水属性弱dot（自动）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招炫耀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招炫耀</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dazhaoxuanyao</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -607,7 +627,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -668,6 +688,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -806,7 +834,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -827,6 +855,90 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -835,94 +947,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -944,6 +975,49 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1648348</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="895351" y="523875"/>
+          <a:ext cx="1562622" cy="1781175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -986,7 +1060,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1294,7 +1368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="L54" sqref="L54"/>
     </sheetView>
   </sheetViews>
@@ -1367,23 +1441,23 @@
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="9" t="s">
         <v>18</v>
       </c>
       <c r="L2" s="2" t="s">
@@ -1400,30 +1474,30 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10" t="s">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="12" t="s">
+      <c r="J3" s="36"/>
+      <c r="K3" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="10" t="s">
         <v>26</v>
       </c>
       <c r="M3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="11" t="s">
         <v>28</v>
       </c>
       <c r="O3" s="6" t="s">
@@ -1434,21 +1508,21 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="10" t="s">
+      <c r="A4" s="35"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="12" t="s">
+      <c r="J4" s="36"/>
+      <c r="K4" s="9" t="s">
         <v>33</v>
       </c>
       <c r="L4" s="2" t="s">
@@ -1468,21 +1542,21 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="8" t="s">
+      <c r="A5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="12" t="s">
+      <c r="J5" s="36"/>
+      <c r="K5" s="9" t="s">
         <v>39</v>
       </c>
       <c r="L5" s="2" t="s">
@@ -1499,17 +1573,17 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="12" t="s">
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="9" t="s">
         <v>43</v>
       </c>
       <c r="L6" s="2" t="s">
@@ -1526,17 +1600,17 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="12" t="s">
+      <c r="A7" s="35"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="9" t="s">
         <v>47</v>
       </c>
       <c r="L7" s="2" t="s">
@@ -1553,17 +1627,17 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="12" t="s">
+      <c r="A8" s="35"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L8" s="2" t="s">
@@ -1580,21 +1654,21 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="8" t="s">
+      <c r="A9" s="35"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="12" t="s">
+      <c r="J9" s="36"/>
+      <c r="K9" s="9" t="s">
         <v>57</v>
       </c>
       <c r="L9" s="2" t="s">
@@ -1611,17 +1685,17 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="12" t="s">
+      <c r="A10" s="35"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="9" t="s">
         <v>60</v>
       </c>
       <c r="L10" s="2" t="s">
@@ -1638,17 +1712,17 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="12" t="s">
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="9" t="s">
         <v>64</v>
       </c>
       <c r="L11" s="2" t="s">
@@ -1657,7 +1731,7 @@
       <c r="M11" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="N11" s="14" t="s">
+      <c r="N11" s="11" t="s">
         <v>67</v>
       </c>
       <c r="O11" s="6" t="s">
@@ -1665,67 +1739,67 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="16" t="s">
+      <c r="A12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="L12" s="17" t="s">
+      <c r="L12" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="M12" s="18" t="s">
+      <c r="M12" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="N12" s="19" t="s">
+      <c r="N12" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="O12" s="18" t="s">
+      <c r="O12" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10" t="s">
+      <c r="A13" s="35"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="N13" s="19" t="s">
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="N13" s="15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="K14" s="21" t="s">
+      <c r="K14" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="L14" s="22" t="s">
+      <c r="L14" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="N14" s="19" t="s">
+      <c r="N14" s="15" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="K15" s="21" t="s">
+      <c r="K15" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="L15" s="23" t="s">
+      <c r="L15" s="19" t="s">
         <v>75</v>
       </c>
       <c r="N15" s="6" t="s">
@@ -1733,7 +1807,7 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="K16" s="24" t="s">
+      <c r="K16" s="20" t="s">
         <v>77</v>
       </c>
       <c r="L16" s="6" t="s">
@@ -1741,34 +1815,34 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.15">
-      <c r="K17" s="24" t="s">
+      <c r="K17" s="20" t="s">
         <v>77</v>
       </c>
       <c r="L17" s="6" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="25" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="26" t="s">
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H20" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="11" t="s">
+      <c r="I20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="8" t="s">
+      <c r="J20" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="K20" s="12" t="s">
+      <c r="K20" s="9" t="s">
         <v>18</v>
       </c>
       <c r="L20" s="2" t="s">
@@ -1785,21 +1859,21 @@
       </c>
     </row>
     <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="10" t="s">
+      <c r="A21" s="35"/>
+      <c r="B21" s="36"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="36"/>
+      <c r="E21" s="36"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="I21" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="8"/>
-      <c r="K21" s="12" t="s">
+      <c r="J21" s="36"/>
+      <c r="K21" s="9" t="s">
         <v>25</v>
       </c>
       <c r="L21" s="2" t="s">
@@ -1808,7 +1882,7 @@
       <c r="M21" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="N21" s="14" t="s">
+      <c r="N21" s="11" t="s">
         <v>28</v>
       </c>
       <c r="O21" s="6" t="s">
@@ -1819,21 +1893,21 @@
       </c>
     </row>
     <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="10" t="s">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="39"/>
+      <c r="H22" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I22" s="11" t="s">
+      <c r="I22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J22" s="8"/>
-      <c r="K22" s="12" t="s">
+      <c r="J22" s="36"/>
+      <c r="K22" s="9" t="s">
         <v>33</v>
       </c>
       <c r="L22" s="2" t="s">
@@ -1853,21 +1927,21 @@
       </c>
     </row>
     <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="8" t="s">
+      <c r="A23" s="35"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="15" t="s">
+      <c r="I23" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="J23" s="8"/>
-      <c r="K23" s="12" t="s">
+      <c r="J23" s="36"/>
+      <c r="K23" s="9" t="s">
         <v>39</v>
       </c>
       <c r="L23" s="2" t="s">
@@ -1884,17 +1958,17 @@
       </c>
     </row>
     <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="7"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="8"/>
-      <c r="K24" s="12" t="s">
+      <c r="A24" s="35"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="9" t="s">
         <v>43</v>
       </c>
       <c r="L24" s="2" t="s">
@@ -1911,17 +1985,17 @@
       </c>
     </row>
     <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="15"/>
-      <c r="J25" s="8"/>
-      <c r="K25" s="12" t="s">
+      <c r="A25" s="35"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="9" t="s">
         <v>47</v>
       </c>
       <c r="L25" s="2" t="s">
@@ -1938,17 +2012,17 @@
       </c>
     </row>
     <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="7"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="8"/>
-      <c r="K26" s="12" t="s">
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="39"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="9" t="s">
         <v>51</v>
       </c>
       <c r="L26" s="2" t="s">
@@ -1965,21 +2039,21 @@
       </c>
     </row>
     <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="7"/>
-      <c r="B27" s="8"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="8" t="s">
+      <c r="A27" s="35"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="I27" s="15" t="s">
+      <c r="I27" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="J27" s="8"/>
-      <c r="K27" s="12" t="s">
+      <c r="J27" s="36"/>
+      <c r="K27" s="9" t="s">
         <v>57</v>
       </c>
       <c r="L27" s="2" t="s">
@@ -1996,17 +2070,17 @@
       </c>
     </row>
     <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="7"/>
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="12" t="s">
+      <c r="A28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="9" t="s">
         <v>60</v>
       </c>
       <c r="L28" s="2" t="s">
@@ -2023,17 +2097,17 @@
       </c>
     </row>
     <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="7"/>
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="12" t="s">
+      <c r="A29" s="35"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="9" t="s">
         <v>64</v>
       </c>
       <c r="L29" s="2" t="s">
@@ -2042,7 +2116,7 @@
       <c r="M29" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="N29" s="14" t="s">
+      <c r="N29" s="11" t="s">
         <v>67</v>
       </c>
       <c r="O29" s="6" t="s">
@@ -2050,29 +2124,29 @@
       </c>
     </row>
     <row r="30" spans="1:16" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="27" t="s">
+      <c r="A30" s="35"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="36"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="L30" s="28" t="s">
+      <c r="L30" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="M30" s="18" t="s">
+      <c r="M30" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="N30" s="19" t="s">
+      <c r="N30" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="O30" s="18" t="s">
+      <c r="O30" s="14" t="s">
         <v>29</v>
       </c>
       <c r="P30" s="6" t="s">
@@ -2080,30 +2154,30 @@
       </c>
     </row>
     <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="7"/>
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10" t="s">
+      <c r="A31" s="35"/>
+      <c r="B31" s="36"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="39"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="K32" s="29" t="s">
+      <c r="K32" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="L32" s="22" t="s">
+      <c r="L32" s="18" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="33" spans="10:12" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="K33" s="30"/>
-      <c r="L33" s="23" t="s">
+      <c r="K33" s="25"/>
+      <c r="L33" s="19" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2130,12 +2204,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="G20:G31"/>
-    <mergeCell ref="J20:J30"/>
-    <mergeCell ref="H23:H25"/>
-    <mergeCell ref="I23:I25"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
     <mergeCell ref="A20:A31"/>
     <mergeCell ref="B20:B31"/>
     <mergeCell ref="C20:C31"/>
@@ -2148,12 +2216,18 @@
     <mergeCell ref="I5:I7"/>
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
+    <mergeCell ref="F2:F13"/>
+    <mergeCell ref="G20:G31"/>
+    <mergeCell ref="J20:J30"/>
+    <mergeCell ref="H23:H25"/>
+    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="B2:B13"/>
     <mergeCell ref="C2:C13"/>
     <mergeCell ref="D2:D13"/>
     <mergeCell ref="E2:E13"/>
-    <mergeCell ref="F2:F13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2164,88 +2238,98 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.625" style="39" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.25" style="39" customWidth="1"/>
-    <col min="3" max="6" width="9" style="39"/>
-    <col min="7" max="7" width="40.375" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="39"/>
+    <col min="1" max="1" width="10.625" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.25" style="34" customWidth="1"/>
+    <col min="3" max="4" width="9" style="34"/>
+    <col min="5" max="5" width="15.375" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="34"/>
+    <col min="7" max="7" width="40.375" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9" style="34"/>
+    <col min="10" max="10" width="16.375" style="34" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="34"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="26" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.15">
-      <c r="A2" s="34" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="35" t="s">
+      <c r="A2" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="D2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="39" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" s="34" t="s">
-        <v>95</v>
+      <c r="E2" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>98</v>
+      </c>
+      <c r="J2" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.15">
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="31" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.15">
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="33" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2258,10 +2342,103 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.25" style="34" customWidth="1"/>
+    <col min="3" max="4" width="9" style="34"/>
+    <col min="5" max="5" width="15.375" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="34"/>
+    <col min="7" max="7" width="40.375" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.15">
+      <c r="A2" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="29"/>
+    </row>
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.15">
+      <c r="C3" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.15">
+      <c r="C4" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2272,82 +2449,82 @@
     <col min="8" max="8" width="32.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:12" s="34" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33" t="s">
+      <c r="D1" s="28"/>
+      <c r="E1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="32" t="s">
+      <c r="F1" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="26" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="31" t="s">
+      <c r="K1" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="31" t="s">
+      <c r="L1" s="26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:12" s="34" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+      <c r="A2" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="39" t="s">
+      <c r="F2" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="G2" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="G2" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="H2" s="39" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="C3" s="35" t="s">
+      <c r="H2" s="34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="34" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+      <c r="C3" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:12" s="39" customFormat="1" ht="45" x14ac:dyDescent="0.15">
-      <c r="C4" s="37" t="s">
+    <row r="4" spans="1:12" s="34" customFormat="1" ht="45" x14ac:dyDescent="0.15">
+      <c r="C4" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="38" t="s">
+      <c r="D4" s="33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:12" s="39" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:12" s="34" customFormat="1" ht="16.5" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/gd/副本内容设计/第三、四章美术需求.xlsx
+++ b/gd/副本内容设计/第三、四章美术需求.xlsx
@@ -9,13 +9,25 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035"/>
   </bookViews>
   <sheets>
     <sheet name="规范" sheetId="1" r:id="rId1"/>
     <sheet name="xgLongnv3——新增大招" sheetId="4" r:id="rId2"/>
-    <sheet name="xgPiying2——换色" sheetId="2" r:id="rId3"/>
-    <sheet name="xgMomo1——修改" sheetId="3" r:id="rId4"/>
+    <sheet name="xgMomo1——修改" sheetId="3" r:id="rId3"/>
+    <sheet name="bosssenlin31Wendige2——新动作（mesh）" sheetId="5" r:id="rId4"/>
+    <sheet name="bosssenlin32Longnv3——新mesh" sheetId="6" r:id="rId5"/>
+    <sheet name="bosssenlin33Luoxinfu5——新mesh" sheetId="7" r:id="rId6"/>
+    <sheet name="bosssenlin34Amute3——mesh" sheetId="8" r:id="rId7"/>
+    <sheet name="bosssenlin35Xiaochou2——mesh" sheetId="9" r:id="rId8"/>
+    <sheet name="bosssenlin37Hapi1——mesh" sheetId="10" r:id="rId9"/>
+    <sheet name="bosshuoshan41Hongniu4——mesh" sheetId="11" r:id="rId10"/>
+    <sheet name="bosshuoshan42Daochengsizhong4——" sheetId="12" r:id="rId11"/>
+    <sheet name="bosshuoshan43Huoniao4——mesh" sheetId="13" r:id="rId12"/>
+    <sheet name="bosshuoshan44Datiangou4——mesh" sheetId="14" r:id="rId13"/>
+    <sheet name="bosshuoshan47Ifrit4——mesh" sheetId="15" r:id="rId14"/>
+    <sheet name="bosshuoshan48hehuaisituosi4——新增" sheetId="16" r:id="rId15"/>
+    <sheet name="xgPiying2——换色" sheetId="2" r:id="rId16"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="197">
   <si>
     <t>id</t>
   </si>
@@ -620,6 +632,371 @@
   </si>
   <si>
     <t>大招</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作类别</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作名称</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作问题</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体，挂接点名：wp_body，mesh名称：mesh_body</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点4（挂接点）+mesh</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>右角，挂接点名：wp_rhorn，mesh名称：mesh_rhorn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左角，挂接点名：wp_lhorn，mesh名称：mesh_lhorn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bosssenlin31Wendige2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点2（挂接点）+mesh</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点3（挂接点）+mesh</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>bosssenlin32Longnv3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点2（挂接点）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点1（挂接点）+mesh</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>头，挂接点名：wp_head，mesh名称：mesh_head</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点4（挂接点）+mesh</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>左灵印，挂接点名：wp_lcrack，mesh名称：mesh_lcrack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中灵印，挂接点名：wp_mcrack，mesh名称：mesh_mcrack</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bosssenlin33Luoxinfu5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点2（挂接点）+mesh</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点5（挂接点）+mesh</t>
+  </si>
+  <si>
+    <t>弱点5（挂接点）+mesh</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>左下爪，挂接点名：wp_ldclaw，mesh名称：mesh_ldclaw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右下爪，挂接点名：wp_rdclaw，mesh名称：mesh_rdclaw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右上爪，挂接点名：wp_ruclaw，mesh名称：mesh_ruclaw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左上爪，挂接点名：wp_luclaw，mesh名称：mesh_luclaw</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bosssenlin34Amute3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点3（挂接点）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>面具，挂接点名：wp_mask，mesh名称：mesh_mask</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>脸，挂接点名：wp_face</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bosssenlin35Xiaochou2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器，挂接点名：wp_weapon，mesh名称：mesh_weapon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bosssenlin37Hapi1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点3（挂接点）+mesh</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>右翅膀，挂接点名：wp_rwing，mesh名称：mesh_rwing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左翅膀，挂接点名：wp_lwing，mesh名称：mesh_lwing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bosshuoshan41Hongniu4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bosshuoshan42Daochengsizhong4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟，挂接点名：wp_bell，mesh名称：mesh_bell</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>心脏，挂接点名：wp_heart</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bosshuoshan43Huoniao4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右羽毛，挂接点名：wp_rfeather，mesh名称：mesh_rfeather</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中羽毛，挂接点名：wp_mfeather，mesh名称：mesh_mfeather</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左羽毛，挂接点名：wp_lfeather，mesh名称：mesh_lfeather</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bosshuoshan44Datiangou4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扇子，挂接点名：wp_fan，mesh名称：mesh_fan</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bosshuoshan47Ifrit4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器，挂接点名：wp_weapon，mesh名称：mesh_weapon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右裤脚，挂接点名：wp_rtrousers，mesh名称：mesh_rtrousers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左裤脚，挂接点名：wp_ltrousers，mesh名称：mesh_ltrousers</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss技能动作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度爆发</t>
+  </si>
+  <si>
+    <t>提升自身XX%速度，持续5回合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossbuff</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰踢</t>
+  </si>
+  <si>
+    <t>攻击敌方单体，造成XX%物攻火属性伤害附加2个XX%物攻的火属性dot</t>
+  </si>
+  <si>
+    <t>希望做成一个用脚踢的动作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bosswugong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss技能1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方单体，造成XX%物攻火属性伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss技能2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方群体，造成XX%物攻火属性伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss技能3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘多拉盒子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方群体，造成XX%物攻火属性伤害并附加火属性dot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss技能4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>网</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕敌方群体1回合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>boss技能5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>制造之神</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方群体，造成XX%物攻火属性伤害并附加火属性dot和眩晕效果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上面两个工具动作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下面两个工具动作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>四个工具都动作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossXXX1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossXXX2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossXXX3</t>
+  </si>
+  <si>
+    <t>bossXXX4</t>
+  </si>
+  <si>
+    <t>bossXXX5</t>
+  </si>
+  <si>
+    <t>右上武器，挂接点名：wp_ruweapon，mesh名称：mesh_ruweapon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右下武器，挂接点名：wp_rdweapon，mesh名称：mesh_rdweapon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左上武器，挂接点名：wp_luweapon，mesh名称：mesh_luweapon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左下武器，挂接点名：wp_ldweapon，mesh名称：mesh_ldweapon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺穿</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方单体，造成xx%物攻木属性伤害，附加木属性dot</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要用角顶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bosswugong</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点6（挂接点）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>头，挂接点名：wp_head</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点1（挂接点）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>眼睛，挂接点名：wp_eye</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>敲打</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂制造</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bosshuoshan48hehuaisituosi4</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -703,7 +1080,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -743,6 +1120,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="10"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,7 +1217,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -941,6 +1324,51 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -953,8 +1381,17 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1017,7 +1454,222 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>937260</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>99061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1299571</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>121921</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="937260" y="1653541"/>
+          <a:ext cx="2130151" cy="2994660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1232141</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="419100" y="1783080"/>
+          <a:ext cx="2580881" cy="2575560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>312420</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1249681</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>57626</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="533401" y="1866900"/>
+          <a:ext cx="2484120" cy="2717006"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1690345</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="38100" y="2164080"/>
+          <a:ext cx="3420085" cy="2979420"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1762125</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>20526</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="133350" y="2466975"/>
+          <a:ext cx="3590925" cy="1820751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1060,7 +1712,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1092,6 +1744,637 @@
         <a:xfrm>
           <a:off x="962025" y="447675"/>
           <a:ext cx="1419225" cy="1514475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1247776</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1906</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="12" name="组合 11"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="1247776" y="1657351"/>
+          <a:ext cx="2783205" cy="2609850"/>
+          <a:chOff x="6715125" y="1362075"/>
+          <a:chExt cx="3343275" cy="3188175"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="13" name="图片 12"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6715125" y="1362075"/>
+            <a:ext cx="3343275" cy="3188175"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="24" name="文本框 23"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8097442" y="2579017"/>
+            <a:ext cx="457929" cy="446862"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>1</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="23" name="椭圆 22"/>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8077200" y="2667000"/>
+            <a:ext cx="428624" cy="435636"/>
+          </a:xfrm>
+          <a:prstGeom prst="ellipse">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="38100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="16" name="组合 15"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="7546989" y="1754816"/>
+            <a:ext cx="339717" cy="367782"/>
+            <a:chOff x="6433029" y="7907966"/>
+            <a:chExt cx="389951" cy="367782"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="20" name="椭圆 19"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6433029" y="7962900"/>
+              <a:ext cx="389951" cy="312848"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="21" name="文本框 20"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6451242" y="7907966"/>
+              <a:ext cx="295203" cy="332910"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="00B0F0"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="17" name="组合 16"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="8743950" y="1752600"/>
+            <a:ext cx="339717" cy="367782"/>
+            <a:chOff x="6433029" y="7907966"/>
+            <a:chExt cx="389951" cy="367782"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="椭圆 17"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6433029" y="7962900"/>
+              <a:ext cx="389951" cy="312848"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="19" name="文本框 18"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6451242" y="7907966"/>
+              <a:ext cx="295203" cy="332910"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="00B0F0"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>160020</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1719771</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>91441</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="160020" y="1706881"/>
+          <a:ext cx="3327591" cy="2910840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>441960</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>541021</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1363979</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>129095</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="441960" y="2095501"/>
+          <a:ext cx="2689859" cy="2956114"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>472440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1492371</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2026920"/>
+          <a:ext cx="3260211" cy="2743200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1455420</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>160709</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="236220" y="1645920"/>
+          <a:ext cx="2987040" cy="3041069"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>487681</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1616247</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="487681" y="1661160"/>
+          <a:ext cx="2896406" cy="2918460"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>312421</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1490213</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="182880" y="1866901"/>
+          <a:ext cx="3075173" cy="2933700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1368,8 +2651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L54" sqref="L54"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1441,20 +2724,20 @@
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="37"/>
+      <c r="A2" s="50"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="51" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="9" t="s">
@@ -1474,20 +2757,20 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="35"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="37"/>
+      <c r="A3" s="50"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="36"/>
+      <c r="J3" s="51"/>
       <c r="K3" s="9" t="s">
         <v>25</v>
       </c>
@@ -1508,20 +2791,20 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="35"/>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="37"/>
+      <c r="A4" s="50"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="7" t="s">
         <v>31</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="36"/>
+      <c r="J4" s="51"/>
       <c r="K4" s="9" t="s">
         <v>33</v>
       </c>
@@ -1542,20 +2825,20 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="35"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="36" t="s">
+      <c r="A5" s="50"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="38" t="s">
+      <c r="I5" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="36"/>
+      <c r="J5" s="51"/>
       <c r="K5" s="9" t="s">
         <v>39</v>
       </c>
@@ -1573,16 +2856,16 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="35"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="36"/>
+      <c r="A6" s="50"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="51"/>
       <c r="K6" s="9" t="s">
         <v>43</v>
       </c>
@@ -1600,16 +2883,16 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="35"/>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="36"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="9" t="s">
         <v>47</v>
       </c>
@@ -1627,16 +2910,16 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="35"/>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="37"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="52"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="36"/>
+      <c r="J8" s="51"/>
       <c r="K8" s="9" t="s">
         <v>51</v>
       </c>
@@ -1654,20 +2937,20 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="36" t="s">
+      <c r="A9" s="50"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="38" t="s">
+      <c r="I9" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="36"/>
+      <c r="J9" s="51"/>
       <c r="K9" s="9" t="s">
         <v>57</v>
       </c>
@@ -1685,16 +2968,16 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="36"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="51"/>
       <c r="K10" s="9" t="s">
         <v>60</v>
       </c>
@@ -1712,16 +2995,16 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="37"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="52"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="36"/>
+      <c r="J11" s="51"/>
       <c r="K11" s="9" t="s">
         <v>64</v>
       </c>
@@ -1739,16 +3022,16 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="35"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="36"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="37"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="52"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="36"/>
+      <c r="J12" s="51"/>
       <c r="K12" s="12" t="s">
         <v>68</v>
       </c>
@@ -1766,13 +3049,13 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="37"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="52"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
@@ -1824,13 +3107,13 @@
     </row>
     <row r="19" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="39" t="s">
+      <c r="A20" s="50"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="54" t="s">
         <v>80</v>
       </c>
       <c r="H20" s="7" t="s">
@@ -1839,7 +3122,7 @@
       <c r="I20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="36" t="s">
+      <c r="J20" s="51" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="9" t="s">
@@ -1859,20 +3142,20 @@
       </c>
     </row>
     <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="39"/>
+      <c r="A21" s="50"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="54"/>
       <c r="H21" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="36"/>
+      <c r="J21" s="51"/>
       <c r="K21" s="9" t="s">
         <v>25</v>
       </c>
@@ -1893,20 +3176,20 @@
       </c>
     </row>
     <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="35"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="39"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="54"/>
       <c r="H22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J22" s="36"/>
+      <c r="J22" s="51"/>
       <c r="K22" s="9" t="s">
         <v>33</v>
       </c>
@@ -1927,20 +3210,20 @@
       </c>
     </row>
     <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="35"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="36"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="36" t="s">
+      <c r="A23" s="50"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="38" t="s">
+      <c r="I23" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="J23" s="36"/>
+      <c r="J23" s="51"/>
       <c r="K23" s="9" t="s">
         <v>39</v>
       </c>
@@ -1958,16 +3241,16 @@
       </c>
     </row>
     <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="35"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="36"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="36"/>
+      <c r="A24" s="50"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="51"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="51"/>
       <c r="K24" s="9" t="s">
         <v>43</v>
       </c>
@@ -1985,16 +3268,16 @@
       </c>
     </row>
     <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="35"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="36"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="36"/>
+      <c r="A25" s="50"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="54"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="53"/>
+      <c r="J25" s="51"/>
       <c r="K25" s="9" t="s">
         <v>47</v>
       </c>
@@ -2012,16 +3295,16 @@
       </c>
     </row>
     <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="35"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="39"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="54"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="36"/>
+      <c r="J26" s="51"/>
       <c r="K26" s="9" t="s">
         <v>51</v>
       </c>
@@ -2039,20 +3322,20 @@
       </c>
     </row>
     <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="35"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="36" t="s">
+      <c r="A27" s="50"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="54"/>
+      <c r="H27" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="I27" s="38" t="s">
+      <c r="I27" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="J27" s="36"/>
+      <c r="J27" s="51"/>
       <c r="K27" s="9" t="s">
         <v>57</v>
       </c>
@@ -2070,16 +3353,16 @@
       </c>
     </row>
     <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="35"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="36"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="36"/>
+      <c r="A28" s="50"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="50"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="53"/>
+      <c r="J28" s="51"/>
       <c r="K28" s="9" t="s">
         <v>60</v>
       </c>
@@ -2097,16 +3380,16 @@
       </c>
     </row>
     <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="35"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="39"/>
+      <c r="A29" s="50"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="50"/>
+      <c r="G29" s="54"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="36"/>
+      <c r="J29" s="51"/>
       <c r="K29" s="9" t="s">
         <v>64</v>
       </c>
@@ -2124,16 +3407,16 @@
       </c>
     </row>
     <row r="30" spans="1:16" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="35"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="39"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="54"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="36"/>
+      <c r="J30" s="51"/>
       <c r="K30" s="22" t="s">
         <v>83</v>
       </c>
@@ -2154,13 +3437,13 @@
       </c>
     </row>
     <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="35"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="39"/>
+      <c r="A31" s="50"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="50"/>
+      <c r="G31" s="54"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7" t="s">
@@ -2204,11 +3487,11 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A20:A31"/>
-    <mergeCell ref="B20:B31"/>
-    <mergeCell ref="C20:C31"/>
-    <mergeCell ref="D20:D31"/>
-    <mergeCell ref="E20:E31"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="C2:C13"/>
+    <mergeCell ref="D2:D13"/>
+    <mergeCell ref="E2:E13"/>
     <mergeCell ref="F20:F31"/>
     <mergeCell ref="G2:G13"/>
     <mergeCell ref="J2:J12"/>
@@ -2223,14 +3506,2058 @@
     <mergeCell ref="I23:I25"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="I27:I28"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="C2:C13"/>
-    <mergeCell ref="D2:D13"/>
-    <mergeCell ref="E2:E13"/>
+    <mergeCell ref="A20:A31"/>
+    <mergeCell ref="B20:B31"/>
+    <mergeCell ref="C20:C31"/>
+    <mergeCell ref="D20:D31"/>
+    <mergeCell ref="E20:E31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.75" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.125" style="42" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="42" customWidth="1"/>
+    <col min="4" max="4" width="28.375" style="42" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="42" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+    </row>
+    <row r="3" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="46"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+    </row>
+    <row r="4" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="46"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B5" s="56"/>
+      <c r="C5" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="48"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="56"/>
+      <c r="C8" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="48"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="56"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="48"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="48"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="56"/>
+      <c r="C11" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="34"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="49"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18" s="49"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="49"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="58"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="49"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="49"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="49"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="49"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="49"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="49"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="49"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="49"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="49"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="49"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="49"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="49"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="49"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" s="49"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" s="49"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" s="49"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" s="49"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.75" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.125" style="42" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="42" customWidth="1"/>
+    <col min="4" max="4" width="28.375" style="42" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="42" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+    </row>
+    <row r="3" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="46"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+    </row>
+    <row r="4" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="46"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B5" s="56"/>
+      <c r="C5" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="48"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="56"/>
+      <c r="C8" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="48"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="56"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="48"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="48"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="56"/>
+      <c r="C11" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="34"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="49"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18" s="49"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="49"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="58"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="49"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="49"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="49"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="49"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="49"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="49"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="49"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="49"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="49"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="49"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="49"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="49"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="49"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" s="49"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" s="49"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" s="49"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" s="49"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.75" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.125" style="42" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="42" customWidth="1"/>
+    <col min="4" max="4" width="28.375" style="42" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="42" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="55" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+    </row>
+    <row r="3" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="46"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+    </row>
+    <row r="4" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="46"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B5" s="56"/>
+      <c r="C5" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="48"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="56"/>
+      <c r="C8" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="E8" s="48"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="56"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="48"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="48"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="56"/>
+      <c r="C11" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="56"/>
+      <c r="C14" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="34"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="49"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18" s="49"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="49"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="58"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="49"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="49"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="49"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="49"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="49"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="49"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="49"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="49"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="49"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="49"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="49"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="49"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="49"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" s="49"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" s="49"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" s="49"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" s="49"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.75" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.125" style="42" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="42" customWidth="1"/>
+    <col min="4" max="4" width="28.375" style="42" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="42" customWidth="1"/>
+    <col min="6" max="6" width="9" style="42"/>
+    <col min="7" max="7" width="31.125" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="55" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48" t="s">
+        <v>156</v>
+      </c>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+    </row>
+    <row r="3" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="46"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+    </row>
+    <row r="4" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="46"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B5" s="56"/>
+      <c r="C5" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="48"/>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="56"/>
+      <c r="C8" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="48"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="56"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="48"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="48"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="56"/>
+      <c r="C11" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="56"/>
+      <c r="C14" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="34"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="49"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18" s="49"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="49"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="58"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="49"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="49"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="49"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="49"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="49"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="49"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="49"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="49"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="49"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="49"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="49"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="49"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="49"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" s="49"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" s="49"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" s="49"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" s="49"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.75" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.125" style="42" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="42" customWidth="1"/>
+    <col min="4" max="4" width="28.375" style="42" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="42" customWidth="1"/>
+    <col min="6" max="6" width="9" style="42"/>
+    <col min="7" max="7" width="70.375" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.125" style="42" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="42"/>
+    <col min="10" max="10" width="14.125" style="42" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+    </row>
+    <row r="3" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="46"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+    </row>
+    <row r="4" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="46"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B5" s="56"/>
+      <c r="C5" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="48"/>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="56"/>
+      <c r="C8" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="48"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="56"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="48"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="48"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="56"/>
+      <c r="C11" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="56"/>
+      <c r="C14" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="34"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="49"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18" s="49"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="49"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="58"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="49"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="49"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="49"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="49"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="49"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="49"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="49"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="49"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="49"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="49"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="49"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="49"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="49"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" s="49"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" s="49"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" s="49"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" s="49"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.75" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.125" style="42" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="42" customWidth="1"/>
+    <col min="4" max="4" width="28.375" style="42" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="42" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="42" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="70.375" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.125" style="42" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="42"/>
+    <col min="10" max="10" width="14.125" style="42" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="H2" s="48"/>
+      <c r="J2" s="48" t="s">
+        <v>177</v>
+      </c>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+    </row>
+    <row r="3" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>163</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>195</v>
+      </c>
+      <c r="G3" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+    </row>
+    <row r="4" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48" t="s">
+        <v>179</v>
+      </c>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B5" s="56"/>
+      <c r="C5" s="57" t="s">
+        <v>192</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>193</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>175</v>
+      </c>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48" t="s">
+        <v>180</v>
+      </c>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>176</v>
+      </c>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48" t="s">
+        <v>181</v>
+      </c>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="48"/>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="56"/>
+      <c r="C8" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" s="48"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="56"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="48"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="48"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="56"/>
+      <c r="C11" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="56"/>
+      <c r="C14" s="57" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="34"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
+    </row>
+    <row r="17" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="49"/>
+      <c r="C17" s="57" t="s">
+        <v>123</v>
+      </c>
+      <c r="D17" s="58" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="49"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
+    </row>
+    <row r="19" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="49"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="58"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="49"/>
+      <c r="C20" s="57" t="s">
+        <v>190</v>
+      </c>
+      <c r="D20" s="58" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="49"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="58"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="49"/>
+      <c r="C22" s="57"/>
+      <c r="D22" s="58"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="49"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="49"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="49"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="49"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="49"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="49"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="49"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="49"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="49"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="49"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" s="49"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" s="49"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" s="49"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" s="49"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="D20:D22"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="0" tint="-0.34998626667073579"/>
+  </sheetPr>
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.625" style="34" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.25" style="34" customWidth="1"/>
+    <col min="3" max="4" width="9" style="34"/>
+    <col min="5" max="5" width="15.375" style="34" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="34"/>
+    <col min="7" max="7" width="40.375" style="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="34"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.15">
+      <c r="A2" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" s="29"/>
+    </row>
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.15">
+      <c r="C3" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.15">
+      <c r="C4" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2238,11 +5565,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.625" style="34" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.25" style="34" customWidth="1"/>
@@ -2301,7 +5628,7 @@
       <c r="D2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="40" t="s">
+      <c r="E2" s="36" t="s">
         <v>103</v>
       </c>
       <c r="F2" s="34" t="s">
@@ -2341,99 +5668,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="10.625" style="34" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.25" style="34" customWidth="1"/>
-    <col min="3" max="4" width="9" style="34"/>
-    <col min="5" max="5" width="15.375" style="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="34"/>
-    <col min="7" max="7" width="40.375" style="34" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="34"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>91</v>
-      </c>
-      <c r="J1" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>96</v>
-      </c>
-      <c r="G2" s="29"/>
-    </row>
-    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.15">
-      <c r="C3" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.15">
-      <c r="C4" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
@@ -2530,4 +5764,1856 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.75" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.125" style="42" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="42" customWidth="1"/>
+    <col min="4" max="4" width="28.375" style="42" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="42" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48" t="s">
+        <v>189</v>
+      </c>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+    </row>
+    <row r="3" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="46"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+    </row>
+    <row r="4" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="44" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="46"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B5" s="56"/>
+      <c r="C5" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="48"/>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="56"/>
+      <c r="C8" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="48"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="56"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="48"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="48"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="56"/>
+      <c r="C11" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B14" s="56"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A15" s="34"/>
+      <c r="B15" s="56"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B16" s="56"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" s="49"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="49"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" s="49"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" s="49"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21" s="49"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B22" s="49"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B23" s="49"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B24" s="49"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B25" s="49"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B26" s="49"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B27" s="49"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B28" s="49"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B29" s="49"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B30" s="49"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B31" s="49"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B32" s="49"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" s="49"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" s="49"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" s="49"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" s="49"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.75" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.125" style="42" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="42" customWidth="1"/>
+    <col min="4" max="4" width="28.375" style="42" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="42" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+    </row>
+    <row r="3" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="46"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+    </row>
+    <row r="4" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="46"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B5" s="56"/>
+      <c r="C5" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="48"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="56"/>
+      <c r="C8" s="57" t="s">
+        <v>115</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="48"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="56"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="48"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="48"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="56"/>
+      <c r="C11" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B14" s="56"/>
+      <c r="C14" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="34"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" s="49"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="49"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" s="49"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" s="49"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21" s="49"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B22" s="49"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B23" s="49"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B24" s="49"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B25" s="49"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B26" s="49"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B27" s="49"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B28" s="49"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B29" s="49"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B30" s="49"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B31" s="49"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B32" s="49"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" s="49"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" s="49"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" s="49"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" s="49"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.75" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.125" style="42" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="42" customWidth="1"/>
+    <col min="4" max="4" width="28.375" style="42" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="42" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+    </row>
+    <row r="3" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="46"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+    </row>
+    <row r="4" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="46"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B5" s="56"/>
+      <c r="C5" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="48"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="56"/>
+      <c r="C8" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="E8" s="48"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="56"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="48"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="48"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="56"/>
+      <c r="C11" s="57" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B14" s="56"/>
+      <c r="C14" s="57" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="58" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="34"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="49"/>
+      <c r="C17" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="D17" s="58" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18" s="49"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="49"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="58"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="49"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="49"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="49"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="49"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="49"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="49"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="49"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="49"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="49"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="49"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="49"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="49"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="49"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" s="49"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" s="49"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" s="49"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" s="49"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.75" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.125" style="42" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="42" customWidth="1"/>
+    <col min="4" max="4" width="28.375" style="42" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="42" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="55" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+    </row>
+    <row r="3" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="46"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+    </row>
+    <row r="4" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="46"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B5" s="56"/>
+      <c r="C5" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="48"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="56"/>
+      <c r="C8" s="57" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>131</v>
+      </c>
+      <c r="E8" s="48"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="56"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="48"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="48"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="56"/>
+      <c r="C11" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="34"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="49"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18" s="49"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="49"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="58"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="49"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="49"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="49"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="49"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="49"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="49"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="49"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="49"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="49"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="49"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="49"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="49"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="49"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" s="49"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" s="49"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" s="49"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" s="49"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.75" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.125" style="42" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="42" customWidth="1"/>
+    <col min="4" max="4" width="28.375" style="42" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="42" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+    </row>
+    <row r="3" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="46"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+    </row>
+    <row r="4" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="46"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B5" s="56"/>
+      <c r="C5" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="48"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="56"/>
+      <c r="C8" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>134</v>
+      </c>
+      <c r="E8" s="48"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="56"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="48"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="48"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="56"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="58"/>
+    </row>
+    <row r="12" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="34"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="49"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18" s="49"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="49"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="58"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="49"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="49"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="49"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="49"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="49"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="49"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="49"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="49"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="49"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="49"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="49"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="49"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="49"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" s="49"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" s="49"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" s="49"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" s="49"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.75" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.125" style="42" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="42" customWidth="1"/>
+    <col min="4" max="4" width="28.375" style="42" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="42" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="55" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+    </row>
+    <row r="3" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="55"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="46"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+      <c r="O3" s="48"/>
+    </row>
+    <row r="4" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="55"/>
+      <c r="B4" s="56"/>
+      <c r="C4" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="46"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+      <c r="O4" s="48"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B5" s="56"/>
+      <c r="C5" s="57" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="58" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="48"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B6" s="56"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+      <c r="O6" s="48"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="58"/>
+      <c r="E7" s="48"/>
+    </row>
+    <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="56"/>
+      <c r="C8" s="57" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="58" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="48"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="56"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="48"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="48"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="56"/>
+      <c r="C11" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="58" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="58"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="58"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B14" s="56"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="58"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A15" s="34"/>
+      <c r="B15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B16" s="56"/>
+      <c r="C16" s="57"/>
+      <c r="D16" s="58"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="49"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="58"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18" s="49"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="58"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="49"/>
+      <c r="C19" s="57"/>
+      <c r="D19" s="58"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="49"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="49"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="49"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="49"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="49"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="49"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="49"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="49"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="49"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="49"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="49"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="49"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="49"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" s="49"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" s="49"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" s="49"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" s="49"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/gd/副本内容设计/第三、四章美术需求.xlsx
+++ b/gd/副本内容设计/第三、四章美术需求.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="规范" sheetId="1" r:id="rId1"/>
@@ -20,14 +20,15 @@
     <sheet name="bosssenlin33Luoxinfu5——新mesh" sheetId="7" r:id="rId6"/>
     <sheet name="bosssenlin34Amute3——mesh" sheetId="8" r:id="rId7"/>
     <sheet name="bosssenlin35Xiaochou2——mesh" sheetId="9" r:id="rId8"/>
-    <sheet name="bosssenlin37Hapi1——mesh" sheetId="10" r:id="rId9"/>
-    <sheet name="bosshuoshan41Hongniu4——mesh" sheetId="11" r:id="rId10"/>
-    <sheet name="bosshuoshan42Daochengsizhong4——" sheetId="12" r:id="rId11"/>
-    <sheet name="bosshuoshan43Huoniao4——mesh" sheetId="13" r:id="rId12"/>
-    <sheet name="bosshuoshan44Datiangou4——mesh" sheetId="14" r:id="rId13"/>
-    <sheet name="bosshuoshan47Ifrit4——mesh" sheetId="15" r:id="rId14"/>
-    <sheet name="bosshuoshan48hehuaisituosi4——新增" sheetId="16" r:id="rId15"/>
-    <sheet name="xgPiying2——换色" sheetId="2" r:id="rId16"/>
+    <sheet name="bosssenlin36Momo1——mesh" sheetId="17" r:id="rId9"/>
+    <sheet name="bosssenlin37Hapi1——mesh" sheetId="10" r:id="rId10"/>
+    <sheet name="bosshuoshan41Hongniu4——mesh" sheetId="11" r:id="rId11"/>
+    <sheet name="bosshuoshan42Daochengsizhong4——" sheetId="12" r:id="rId12"/>
+    <sheet name="bosshuoshan43Huoniao4——mesh" sheetId="13" r:id="rId13"/>
+    <sheet name="bosshuoshan44Datiangou4——mesh" sheetId="14" r:id="rId14"/>
+    <sheet name="bosshuoshan47Ifrit4——mesh" sheetId="15" r:id="rId15"/>
+    <sheet name="bosshuoshan48hehuaisituosi4——新增" sheetId="16" r:id="rId16"/>
+    <sheet name="xgPiying2——换色" sheetId="2" r:id="rId17"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="586" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="203">
   <si>
     <t>id</t>
   </si>
@@ -997,6 +998,28 @@
   </si>
   <si>
     <t>bosshuoshan48hehuaisituosi4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>愤怒</t>
+  </si>
+  <si>
+    <t>提升自身XX%智力</t>
+  </si>
+  <si>
+    <t>boss愤怒的动作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bosssenlin36Momo1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点2（挂接点）+mesh</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>护盾，挂接点名：wp_shield，mesh名称：mesh_shield</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1217,7 +1240,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1369,6 +1392,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1459,6 +1488,49 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>312421</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1490213</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="182880" y="1866901"/>
+          <a:ext cx="3075173" cy="2933700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>937260</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>99061</xdr:rowOff>
@@ -1497,7 +1569,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1540,7 +1612,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1583,7 +1655,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1626,7 +1698,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1669,7 +1741,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2305,6 +2377,49 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>1343026</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1868200</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1343026" y="1819275"/>
+          <a:ext cx="2487324" cy="2143125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>487681</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>106680</xdr:rowOff>
@@ -2332,49 +2447,6 @@
         <a:xfrm>
           <a:off x="487681" y="1661160"/>
           <a:ext cx="2896406" cy="2918460"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>182880</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>312421</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1490213</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76201</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="182880" y="1866901"/>
-          <a:ext cx="3075173" cy="2933700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2651,7 +2723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>
@@ -2724,20 +2796,20 @@
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="50"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="52"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="53"/>
+      <c r="C2" s="53"/>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="51" t="s">
+      <c r="J2" s="53" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="9" t="s">
@@ -2757,20 +2829,20 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="50"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="52"/>
+      <c r="A3" s="52"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="54"/>
       <c r="H3" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="51"/>
+      <c r="J3" s="53"/>
       <c r="K3" s="9" t="s">
         <v>25</v>
       </c>
@@ -2791,20 +2863,20 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="50"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="52"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="54"/>
       <c r="H4" s="7" t="s">
         <v>31</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="51"/>
+      <c r="J4" s="53"/>
       <c r="K4" s="9" t="s">
         <v>33</v>
       </c>
@@ -2825,20 +2897,20 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="50"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="51" t="s">
+      <c r="A5" s="52"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="53" t="s">
+      <c r="I5" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="51"/>
+      <c r="J5" s="53"/>
       <c r="K5" s="9" t="s">
         <v>39</v>
       </c>
@@ -2856,16 +2928,16 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="50"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="51"/>
+      <c r="A6" s="52"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="53"/>
       <c r="K6" s="9" t="s">
         <v>43</v>
       </c>
@@ -2883,16 +2955,16 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="50"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="51"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="9" t="s">
         <v>47</v>
       </c>
@@ -2910,16 +2982,16 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="50"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="52"/>
+      <c r="A8" s="52"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="54"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="51"/>
+      <c r="J8" s="53"/>
       <c r="K8" s="9" t="s">
         <v>51</v>
       </c>
@@ -2937,20 +3009,20 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="50"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="51" t="s">
+      <c r="A9" s="52"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="53" t="s">
+      <c r="I9" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="51"/>
+      <c r="J9" s="53"/>
       <c r="K9" s="9" t="s">
         <v>57</v>
       </c>
@@ -2968,16 +3040,16 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="50"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="51"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="53"/>
       <c r="K10" s="9" t="s">
         <v>60</v>
       </c>
@@ -2995,16 +3067,16 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="50"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="52"/>
+      <c r="A11" s="52"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="54"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="51"/>
+      <c r="J11" s="53"/>
       <c r="K11" s="9" t="s">
         <v>64</v>
       </c>
@@ -3022,16 +3094,16 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="50"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="52"/>
+      <c r="A12" s="52"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="54"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="51"/>
+      <c r="J12" s="53"/>
       <c r="K12" s="12" t="s">
         <v>68</v>
       </c>
@@ -3049,13 +3121,13 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="50"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="52"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="54"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
@@ -3107,13 +3179,13 @@
     </row>
     <row r="19" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="50"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="54" t="s">
+      <c r="A20" s="52"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="56" t="s">
         <v>80</v>
       </c>
       <c r="H20" s="7" t="s">
@@ -3122,7 +3194,7 @@
       <c r="I20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="51" t="s">
+      <c r="J20" s="53" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="9" t="s">
@@ -3142,20 +3214,20 @@
       </c>
     </row>
     <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="50"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="54"/>
+      <c r="A21" s="52"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="56"/>
       <c r="H21" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="51"/>
+      <c r="J21" s="53"/>
       <c r="K21" s="9" t="s">
         <v>25</v>
       </c>
@@ -3176,20 +3248,20 @@
       </c>
     </row>
     <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="50"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="54"/>
+      <c r="A22" s="52"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="56"/>
       <c r="H22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J22" s="51"/>
+      <c r="J22" s="53"/>
       <c r="K22" s="9" t="s">
         <v>33</v>
       </c>
@@ -3210,20 +3282,20 @@
       </c>
     </row>
     <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="50"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="50"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="51" t="s">
+      <c r="A23" s="52"/>
+      <c r="B23" s="53"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="53" t="s">
+      <c r="I23" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="J23" s="51"/>
+      <c r="J23" s="53"/>
       <c r="K23" s="9" t="s">
         <v>39</v>
       </c>
@@ -3241,16 +3313,16 @@
       </c>
     </row>
     <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="50"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="51"/>
+      <c r="A24" s="52"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="53"/>
       <c r="K24" s="9" t="s">
         <v>43</v>
       </c>
@@ -3268,16 +3340,16 @@
       </c>
     </row>
     <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="50"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="50"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="53"/>
-      <c r="J25" s="51"/>
+      <c r="A25" s="52"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="53"/>
       <c r="K25" s="9" t="s">
         <v>47</v>
       </c>
@@ -3295,16 +3367,16 @@
       </c>
     </row>
     <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="50"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="54"/>
+      <c r="A26" s="52"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="56"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="51"/>
+      <c r="J26" s="53"/>
       <c r="K26" s="9" t="s">
         <v>51</v>
       </c>
@@ -3322,20 +3394,20 @@
       </c>
     </row>
     <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="50"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="50"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="51" t="s">
+      <c r="A27" s="52"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="53" t="s">
         <v>55</v>
       </c>
-      <c r="I27" s="53" t="s">
+      <c r="I27" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="J27" s="51"/>
+      <c r="J27" s="53"/>
       <c r="K27" s="9" t="s">
         <v>57</v>
       </c>
@@ -3353,16 +3425,16 @@
       </c>
     </row>
     <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="50"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="50"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="53"/>
-      <c r="J28" s="51"/>
+      <c r="A28" s="52"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="53"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="53"/>
       <c r="K28" s="9" t="s">
         <v>60</v>
       </c>
@@ -3380,16 +3452,16 @@
       </c>
     </row>
     <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="50"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="50"/>
-      <c r="G29" s="54"/>
+      <c r="A29" s="52"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="56"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="51"/>
+      <c r="J29" s="53"/>
       <c r="K29" s="9" t="s">
         <v>64</v>
       </c>
@@ -3407,16 +3479,16 @@
       </c>
     </row>
     <row r="30" spans="1:16" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="50"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="51"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="54"/>
+      <c r="A30" s="52"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="56"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="51"/>
+      <c r="J30" s="53"/>
       <c r="K30" s="22" t="s">
         <v>83</v>
       </c>
@@ -3437,13 +3509,13 @@
       </c>
     </row>
     <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="50"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="51"/>
-      <c r="F31" s="50"/>
-      <c r="G31" s="54"/>
+      <c r="A31" s="52"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="56"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7" t="s">
@@ -3487,11 +3559,11 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="C2:C13"/>
-    <mergeCell ref="D2:D13"/>
-    <mergeCell ref="E2:E13"/>
+    <mergeCell ref="A20:A31"/>
+    <mergeCell ref="B20:B31"/>
+    <mergeCell ref="C20:C31"/>
+    <mergeCell ref="D20:D31"/>
+    <mergeCell ref="E20:E31"/>
     <mergeCell ref="F20:F31"/>
     <mergeCell ref="G2:G13"/>
     <mergeCell ref="J2:J12"/>
@@ -3506,11 +3578,11 @@
     <mergeCell ref="I23:I25"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="I27:I28"/>
-    <mergeCell ref="A20:A31"/>
-    <mergeCell ref="B20:B31"/>
-    <mergeCell ref="C20:C31"/>
-    <mergeCell ref="D20:D31"/>
-    <mergeCell ref="E20:E31"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="C2:C13"/>
+    <mergeCell ref="D2:D13"/>
+    <mergeCell ref="E2:E13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3522,7 +3594,7 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D8" sqref="D8:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -3575,10 +3647,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="56"/>
+      <c r="A2" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="58"/>
       <c r="C2" s="37" t="s">
         <v>15</v>
       </c>
@@ -3598,8 +3670,8 @@
       <c r="O2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="37" t="s">
         <v>23</v>
       </c>
@@ -3619,8 +3691,8 @@
       <c r="O3" s="48"/>
     </row>
     <row r="4" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="47" t="s">
         <v>31</v>
       </c>
@@ -3640,11 +3712,11 @@
       <c r="O4" s="48"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B5" s="56"/>
-      <c r="C5" s="57" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="60" t="s">
         <v>107</v>
       </c>
       <c r="E5" s="46"/>
@@ -3660,9 +3732,9 @@
       <c r="O5" s="48"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B6" s="56"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="46"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
@@ -3676,82 +3748,82 @@
       <c r="O6" s="48"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B7" s="56"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
       <c r="E7" s="48"/>
     </row>
     <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="56"/>
-      <c r="C8" s="57" t="s">
+      <c r="B8" s="58"/>
+      <c r="C8" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="58" t="s">
-        <v>109</v>
+      <c r="D8" s="60" t="s">
+        <v>137</v>
       </c>
       <c r="E8" s="48"/>
     </row>
     <row r="9" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="56"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
       <c r="E9" s="48"/>
     </row>
     <row r="10" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="48"/>
     </row>
     <row r="11" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="56"/>
-      <c r="C11" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="58" t="s">
-        <v>110</v>
+      <c r="B11" s="58"/>
+      <c r="C11" s="59" t="s">
+        <v>136</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="56"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
     </row>
     <row r="13" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="56"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B14" s="56"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="60"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B16" s="56"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17" s="49"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B18" s="49"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19" s="49"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="49"/>
@@ -3886,10 +3958,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="B2" s="56"/>
+      <c r="A2" s="57" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" s="58"/>
       <c r="C2" s="37" t="s">
         <v>15</v>
       </c>
@@ -3909,8 +3981,8 @@
       <c r="O2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="37" t="s">
         <v>23</v>
       </c>
@@ -3930,8 +4002,8 @@
       <c r="O3" s="48"/>
     </row>
     <row r="4" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="47" t="s">
         <v>31</v>
       </c>
@@ -3951,11 +4023,11 @@
       <c r="O4" s="48"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B5" s="56"/>
-      <c r="C5" s="57" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="60" t="s">
         <v>107</v>
       </c>
       <c r="E5" s="46"/>
@@ -3971,9 +4043,9 @@
       <c r="O5" s="48"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B6" s="56"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="46"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
@@ -3987,82 +4059,82 @@
       <c r="O6" s="48"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B7" s="56"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
       <c r="E7" s="48"/>
     </row>
     <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="56"/>
-      <c r="C8" s="57" t="s">
+      <c r="B8" s="58"/>
+      <c r="C8" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="58" t="s">
-        <v>141</v>
+      <c r="D8" s="60" t="s">
+        <v>109</v>
       </c>
       <c r="E8" s="48"/>
     </row>
     <row r="9" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="56"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
       <c r="E9" s="48"/>
     </row>
     <row r="10" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="48"/>
     </row>
     <row r="11" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="56"/>
-      <c r="C11" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="D11" s="58" t="s">
-        <v>142</v>
+      <c r="B11" s="58"/>
+      <c r="C11" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="56"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
     </row>
     <row r="13" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="56"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B14" s="56"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="60"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B16" s="56"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17" s="49"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B18" s="49"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19" s="49"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="49"/>
@@ -4197,10 +4269,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="B2" s="56"/>
+      <c r="A2" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="58"/>
       <c r="C2" s="37" t="s">
         <v>15</v>
       </c>
@@ -4220,8 +4292,8 @@
       <c r="O2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="37" t="s">
         <v>23</v>
       </c>
@@ -4241,8 +4313,8 @@
       <c r="O3" s="48"/>
     </row>
     <row r="4" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="47" t="s">
         <v>31</v>
       </c>
@@ -4262,11 +4334,11 @@
       <c r="O4" s="48"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B5" s="56"/>
-      <c r="C5" s="57" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="60" t="s">
         <v>107</v>
       </c>
       <c r="E5" s="46"/>
@@ -4282,9 +4354,9 @@
       <c r="O5" s="48"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B6" s="56"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="46"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
@@ -4298,86 +4370,82 @@
       <c r="O6" s="48"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B7" s="56"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
       <c r="E7" s="48"/>
     </row>
     <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="56"/>
-      <c r="C8" s="57" t="s">
+      <c r="B8" s="58"/>
+      <c r="C8" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="58" t="s">
-        <v>144</v>
+      <c r="D8" s="60" t="s">
+        <v>141</v>
       </c>
       <c r="E8" s="48"/>
     </row>
     <row r="9" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="56"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
       <c r="E9" s="48"/>
     </row>
     <row r="10" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="48"/>
     </row>
     <row r="11" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="56"/>
-      <c r="C11" s="57" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="58" t="s">
-        <v>145</v>
+      <c r="B11" s="58"/>
+      <c r="C11" s="59" t="s">
+        <v>130</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="56"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
     </row>
     <row r="13" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="56"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
-    </row>
-    <row r="14" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="56"/>
-      <c r="C14" s="57" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="58" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B14" s="58"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="60"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
-    </row>
-    <row r="16" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="56"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B16" s="58"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17" s="49"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B18" s="49"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19" s="49"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="49"/>
@@ -4456,10 +4524,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -4469,12 +4537,10 @@
     <col min="3" max="3" width="15.75" style="42" customWidth="1"/>
     <col min="4" max="4" width="28.375" style="42" customWidth="1"/>
     <col min="5" max="5" width="13.875" style="42" customWidth="1"/>
-    <col min="6" max="6" width="9" style="42"/>
-    <col min="7" max="7" width="31.125" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="42"/>
+    <col min="6" max="16384" width="9" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -4491,58 +4557,54 @@
       <c r="F1" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="41" t="s">
+        <v>106</v>
+      </c>
+      <c r="H1" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="I1" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="J1" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="K1" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="L1" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="M1" s="38" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="55" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" s="56"/>
+    <row r="2" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="57" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="58"/>
       <c r="C2" s="37" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="G2" s="48" t="s">
-        <v>155</v>
-      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
-      <c r="J2" s="48" t="s">
-        <v>156</v>
-      </c>
+      <c r="J2" s="48"/>
       <c r="K2" s="48"/>
       <c r="L2" s="48"/>
       <c r="M2" s="48"/>
       <c r="N2" s="48"/>
-    </row>
-    <row r="3" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56"/>
+      <c r="O2" s="48"/>
+    </row>
+    <row r="3" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="37" t="s">
         <v>23</v>
       </c>
@@ -4552,17 +4614,18 @@
       <c r="E3" s="46"/>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
-      <c r="H3" s="48"/>
+      <c r="H3" s="29"/>
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
       <c r="K3" s="48"/>
       <c r="L3" s="48"/>
       <c r="M3" s="48"/>
       <c r="N3" s="48"/>
-    </row>
-    <row r="4" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
+      <c r="O3" s="48"/>
+    </row>
+    <row r="4" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="47" t="s">
         <v>31</v>
       </c>
@@ -4572,129 +4635,132 @@
       <c r="E4" s="46"/>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
-      <c r="H4" s="48"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="48"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
       <c r="M4" s="48"/>
       <c r="N4" s="48"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B5" s="56"/>
-      <c r="C5" s="57" t="s">
+      <c r="O4" s="48"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B5" s="58"/>
+      <c r="C5" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="60" t="s">
         <v>107</v>
       </c>
       <c r="E5" s="46"/>
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
-      <c r="H5" s="48"/>
+      <c r="H5" s="29"/>
       <c r="I5" s="48"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
       <c r="M5" s="48"/>
       <c r="N5" s="48"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B6" s="56"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="58"/>
+      <c r="O5" s="48"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B6" s="58"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="46"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
-      <c r="H6" s="48"/>
+      <c r="H6" s="29"/>
       <c r="I6" s="48"/>
       <c r="J6" s="48"/>
       <c r="K6" s="48"/>
       <c r="L6" s="48"/>
       <c r="M6" s="48"/>
       <c r="N6" s="48"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B7" s="56"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
+      <c r="O6" s="48"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="B7" s="58"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
       <c r="E7" s="48"/>
     </row>
-    <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="56"/>
-      <c r="C8" s="57" t="s">
+    <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="58"/>
+      <c r="C8" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="58" t="s">
-        <v>137</v>
+      <c r="D8" s="60" t="s">
+        <v>144</v>
       </c>
       <c r="E8" s="48"/>
     </row>
-    <row r="9" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="56"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
+    <row r="9" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="58"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
       <c r="E9" s="48"/>
     </row>
-    <row r="10" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
+    <row r="10" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="58"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="48"/>
     </row>
-    <row r="11" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="56"/>
-      <c r="C11" s="57" t="s">
+    <row r="11" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="58"/>
+      <c r="C11" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="58" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="56"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="56"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="56"/>
-      <c r="C14" s="57" t="s">
+      <c r="D11" s="60" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="58"/>
+      <c r="C14" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="58" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D14" s="60" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="56"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="58"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17" s="49"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B18" s="49"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19" s="49"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="49"/>
@@ -4776,7 +4842,7 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E2" sqref="E2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -4787,11 +4853,8 @@
     <col min="4" max="4" width="28.375" style="42" customWidth="1"/>
     <col min="5" max="5" width="13.875" style="42" customWidth="1"/>
     <col min="6" max="6" width="9" style="42"/>
-    <col min="7" max="7" width="70.375" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.125" style="42" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="42"/>
-    <col min="10" max="10" width="14.125" style="42" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="42"/>
+    <col min="7" max="7" width="31.125" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -4831,10 +4894,10 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="55" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="56"/>
+      <c r="A2" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="58"/>
       <c r="C2" s="37" t="s">
         <v>15</v>
       </c>
@@ -4845,16 +4908,15 @@
         <v>153</v>
       </c>
       <c r="F2" s="48" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G2" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="H2" s="48" t="s">
-        <v>159</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
       <c r="J2" s="48" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K2" s="48"/>
       <c r="L2" s="48"/>
@@ -4862,8 +4924,8 @@
       <c r="N2" s="48"/>
     </row>
     <row r="3" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="37" t="s">
         <v>23</v>
       </c>
@@ -4882,8 +4944,8 @@
       <c r="N3" s="48"/>
     </row>
     <row r="4" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="47" t="s">
         <v>31</v>
       </c>
@@ -4902,11 +4964,11 @@
       <c r="N4" s="48"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B5" s="56"/>
-      <c r="C5" s="57" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="60" t="s">
         <v>107</v>
       </c>
       <c r="E5" s="46"/>
@@ -4921,9 +4983,9 @@
       <c r="N5" s="48"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B6" s="56"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="46"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
@@ -4936,86 +4998,86 @@
       <c r="N6" s="48"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B7" s="56"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
       <c r="E7" s="48"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="56"/>
-      <c r="C8" s="57" t="s">
+      <c r="B8" s="58"/>
+      <c r="C8" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="58" t="s">
-        <v>150</v>
+      <c r="D8" s="60" t="s">
+        <v>137</v>
       </c>
       <c r="E8" s="48"/>
     </row>
     <row r="9" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="56"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
       <c r="E9" s="48"/>
     </row>
     <row r="10" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="48"/>
     </row>
     <row r="11" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="56"/>
-      <c r="C11" s="57" t="s">
+      <c r="B11" s="58"/>
+      <c r="C11" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="58" t="s">
-        <v>151</v>
+      <c r="D11" s="60" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="56"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
     </row>
     <row r="13" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="56"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
     </row>
     <row r="14" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="56"/>
-      <c r="C14" s="57" t="s">
+      <c r="B14" s="58"/>
+      <c r="C14" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="58" t="s">
-        <v>152</v>
+      <c r="D14" s="60" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
     </row>
     <row r="16" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="56"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17" s="49"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B18" s="49"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19" s="49"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="49"/>
@@ -5097,6 +5159,327 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.75" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.125" style="42" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="42" customWidth="1"/>
+    <col min="4" max="4" width="28.375" style="42" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="42" customWidth="1"/>
+    <col min="6" max="6" width="9" style="42"/>
+    <col min="7" max="7" width="70.375" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.125" style="42" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="42"/>
+    <col min="10" max="10" width="14.125" style="42" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="57" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+    </row>
+    <row r="3" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="46"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+    </row>
+    <row r="4" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="46"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B5" s="58"/>
+      <c r="C5" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B6" s="58"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B7" s="58"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="48"/>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="58"/>
+      <c r="C8" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="48"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="58"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="48"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="58"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="48"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="58"/>
+      <c r="C11" s="59" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="60" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="58"/>
+      <c r="C14" s="59" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="60" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="34"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="58"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="49"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18" s="49"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="49"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="49"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="49"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="49"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="49"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="49"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="49"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="49"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="49"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="49"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="49"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="49"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="49"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="49"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" s="49"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" s="49"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" s="49"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" s="49"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -5152,10 +5535,10 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>196</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="37" t="s">
         <v>15</v>
       </c>
@@ -5181,8 +5564,8 @@
       <c r="N2" s="48"/>
     </row>
     <row r="3" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="37" t="s">
         <v>23</v>
       </c>
@@ -5209,8 +5592,8 @@
       <c r="N3" s="48"/>
     </row>
     <row r="4" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="47" t="s">
         <v>31</v>
       </c>
@@ -5239,11 +5622,11 @@
       <c r="N4" s="48"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B5" s="56"/>
-      <c r="C5" s="57" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="59" t="s">
         <v>192</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="60" t="s">
         <v>193</v>
       </c>
       <c r="E5" s="36" t="s">
@@ -5268,9 +5651,9 @@
       <c r="N5" s="48"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B6" s="56"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="36" t="s">
         <v>171</v>
       </c>
@@ -5293,109 +5676,109 @@
       <c r="N6" s="48"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B7" s="56"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
       <c r="E7" s="48"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="56"/>
-      <c r="C8" s="57" t="s">
+      <c r="B8" s="58"/>
+      <c r="C8" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="60" t="s">
         <v>182</v>
       </c>
       <c r="E8" s="48"/>
     </row>
     <row r="9" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="56"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
       <c r="E9" s="48"/>
     </row>
     <row r="10" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="48"/>
     </row>
     <row r="11" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="56"/>
-      <c r="C11" s="57" t="s">
+      <c r="B11" s="58"/>
+      <c r="C11" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="60" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="56"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
     </row>
     <row r="13" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="56"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
     </row>
     <row r="14" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="56"/>
-      <c r="C14" s="57" t="s">
+      <c r="B14" s="58"/>
+      <c r="C14" s="59" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="60" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
     </row>
     <row r="16" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="56"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
     </row>
     <row r="17" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="49"/>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="60" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="49"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
     </row>
     <row r="19" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="49"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="49"/>
-      <c r="C20" s="57" t="s">
+      <c r="C20" s="59" t="s">
         <v>190</v>
       </c>
-      <c r="D20" s="58" t="s">
+      <c r="D20" s="60" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B21" s="49"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="58"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B22" s="49"/>
-      <c r="C22" s="57"/>
-      <c r="D22" s="58"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B23" s="49"/>
@@ -5465,7 +5848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
@@ -5821,10 +6204,10 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="35" t="s">
         <v>15</v>
       </c>
@@ -5853,8 +6236,8 @@
       <c r="N2" s="48"/>
     </row>
     <row r="3" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="35" t="s">
         <v>23</v>
       </c>
@@ -5873,8 +6256,8 @@
       <c r="N3" s="48"/>
     </row>
     <row r="4" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="44" t="s">
         <v>31</v>
       </c>
@@ -5893,11 +6276,11 @@
       <c r="N4" s="48"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B5" s="56"/>
-      <c r="C5" s="57" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="60" t="s">
         <v>107</v>
       </c>
       <c r="E5" s="46"/>
@@ -5912,9 +6295,9 @@
       <c r="N5" s="48"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B6" s="56"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="46"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
@@ -5927,61 +6310,61 @@
       <c r="N6" s="48"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B7" s="56"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
       <c r="E7" s="48"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="56"/>
-      <c r="C8" s="57" t="s">
+      <c r="B8" s="58"/>
+      <c r="C8" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="60" t="s">
         <v>109</v>
       </c>
       <c r="E8" s="48"/>
     </row>
     <row r="9" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="56"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
       <c r="E9" s="48"/>
     </row>
     <row r="10" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="48"/>
     </row>
     <row r="11" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="56"/>
-      <c r="C11" s="57" t="s">
+      <c r="B11" s="58"/>
+      <c r="C11" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="60" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="56"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
     </row>
     <row r="13" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="56"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B14" s="56"/>
+      <c r="B14" s="58"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
-      <c r="B15" s="56"/>
+      <c r="B15" s="58"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B16" s="56"/>
+      <c r="B16" s="58"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="49"/>
@@ -6121,10 +6504,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="37" t="s">
         <v>15</v>
       </c>
@@ -6144,8 +6527,8 @@
       <c r="O2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="37" t="s">
         <v>23</v>
       </c>
@@ -6165,8 +6548,8 @@
       <c r="O3" s="48"/>
     </row>
     <row r="4" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="47" t="s">
         <v>31</v>
       </c>
@@ -6186,11 +6569,11 @@
       <c r="O4" s="48"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B5" s="56"/>
-      <c r="C5" s="57" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="60" t="s">
         <v>107</v>
       </c>
       <c r="E5" s="46"/>
@@ -6206,9 +6589,9 @@
       <c r="O5" s="48"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B6" s="56"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="46"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
@@ -6222,71 +6605,71 @@
       <c r="O6" s="48"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B7" s="56"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
       <c r="E7" s="48"/>
     </row>
     <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="56"/>
-      <c r="C8" s="57" t="s">
+      <c r="B8" s="58"/>
+      <c r="C8" s="59" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="60" t="s">
         <v>117</v>
       </c>
       <c r="E8" s="48"/>
     </row>
     <row r="9" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="56"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
       <c r="E9" s="48"/>
     </row>
     <row r="10" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="48"/>
     </row>
     <row r="11" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="56"/>
-      <c r="C11" s="57" t="s">
+      <c r="B11" s="58"/>
+      <c r="C11" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="60" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="56"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
     </row>
     <row r="13" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="56"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B14" s="56"/>
-      <c r="C14" s="57" t="s">
+      <c r="B14" s="58"/>
+      <c r="C14" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="60" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B16" s="56"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="49"/>
@@ -6428,10 +6811,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="37" t="s">
         <v>15</v>
       </c>
@@ -6451,8 +6834,8 @@
       <c r="O2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="37" t="s">
         <v>23</v>
       </c>
@@ -6472,8 +6855,8 @@
       <c r="O3" s="48"/>
     </row>
     <row r="4" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="47" t="s">
         <v>31</v>
       </c>
@@ -6493,11 +6876,11 @@
       <c r="O4" s="48"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B5" s="56"/>
-      <c r="C5" s="57" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="60" t="s">
         <v>107</v>
       </c>
       <c r="E5" s="46"/>
@@ -6513,9 +6896,9 @@
       <c r="O5" s="48"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B6" s="56"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="46"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
@@ -6529,90 +6912,90 @@
       <c r="O6" s="48"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B7" s="56"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
       <c r="E7" s="48"/>
     </row>
     <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="56"/>
-      <c r="C8" s="57" t="s">
+      <c r="B8" s="58"/>
+      <c r="C8" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="60" t="s">
         <v>125</v>
       </c>
       <c r="E8" s="48"/>
     </row>
     <row r="9" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="56"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
       <c r="E9" s="48"/>
     </row>
     <row r="10" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="48"/>
     </row>
     <row r="11" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="56"/>
-      <c r="C11" s="57" t="s">
+      <c r="B11" s="58"/>
+      <c r="C11" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="60" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="56"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
     </row>
     <row r="13" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="56"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B14" s="56"/>
-      <c r="C14" s="57" t="s">
+      <c r="B14" s="58"/>
+      <c r="C14" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="58" t="s">
+      <c r="D14" s="60" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B16" s="56"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17" s="49"/>
-      <c r="C17" s="57" t="s">
+      <c r="C17" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="58" t="s">
+      <c r="D17" s="60" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B18" s="49"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19" s="49"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="49"/>
@@ -6691,10 +7074,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -6707,7 +7090,7 @@
     <col min="6" max="16384" width="9" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
@@ -6724,54 +7107,60 @@
       <c r="F1" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="H1" s="39" t="s">
+      <c r="G1" s="39" t="s">
         <v>10</v>
       </c>
+      <c r="H1" s="38" t="s">
+        <v>11</v>
+      </c>
       <c r="I1" s="38" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="J1" s="38" t="s">
-        <v>91</v>
+        <v>12</v>
       </c>
       <c r="K1" s="38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L1" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="38" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="55" t="s">
+    <row r="2" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="37" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
+      <c r="E2" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>198</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>199</v>
+      </c>
       <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
+      <c r="J2" s="48" t="s">
+        <v>156</v>
+      </c>
       <c r="K2" s="48"/>
       <c r="L2" s="48"/>
       <c r="M2" s="48"/>
       <c r="N2" s="48"/>
-      <c r="O2" s="48"/>
-    </row>
-    <row r="3" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56"/>
+    </row>
+    <row r="3" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="37" t="s">
         <v>23</v>
       </c>
@@ -6781,18 +7170,17 @@
       <c r="E3" s="46"/>
       <c r="F3" s="29"/>
       <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
+      <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="48"/>
       <c r="K3" s="48"/>
       <c r="L3" s="48"/>
       <c r="M3" s="48"/>
       <c r="N3" s="48"/>
-      <c r="O3" s="48"/>
-    </row>
-    <row r="4" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
+    </row>
+    <row r="4" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="47" t="s">
         <v>31</v>
       </c>
@@ -6802,128 +7190,125 @@
       <c r="E4" s="46"/>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
+      <c r="H4" s="48"/>
       <c r="I4" s="48"/>
       <c r="J4" s="48"/>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
       <c r="M4" s="48"/>
       <c r="N4" s="48"/>
-      <c r="O4" s="48"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B5" s="56"/>
-      <c r="C5" s="57" t="s">
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B5" s="58"/>
+      <c r="C5" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="60" t="s">
         <v>107</v>
       </c>
       <c r="E5" s="46"/>
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="H5" s="48"/>
       <c r="I5" s="48"/>
       <c r="J5" s="48"/>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
       <c r="M5" s="48"/>
       <c r="N5" s="48"/>
-      <c r="O5" s="48"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B6" s="56"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="58"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B6" s="58"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="46"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
+      <c r="H6" s="48"/>
       <c r="I6" s="48"/>
       <c r="J6" s="48"/>
       <c r="K6" s="48"/>
       <c r="L6" s="48"/>
       <c r="M6" s="48"/>
       <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B7" s="56"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B7" s="58"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
       <c r="E7" s="48"/>
     </row>
-    <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="56"/>
-      <c r="C8" s="57" t="s">
+    <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="58"/>
+      <c r="C8" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="60" t="s">
         <v>131</v>
       </c>
       <c r="E8" s="48"/>
     </row>
-    <row r="9" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="56"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
+    <row r="9" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="58"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
       <c r="E9" s="48"/>
     </row>
-    <row r="10" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
+    <row r="10" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="58"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="48"/>
     </row>
-    <row r="11" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="56"/>
-      <c r="C11" s="57" t="s">
+    <row r="11" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="58"/>
+      <c r="C11" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="58" t="s">
+      <c r="D11" s="60" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="56"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
-    </row>
-    <row r="13" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="56"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B14" s="56"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B14" s="58"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="60"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B16" s="56"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B16" s="58"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17" s="49"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B18" s="49"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19" s="49"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="49"/>
@@ -7058,10 +7443,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="58"/>
       <c r="C2" s="37" t="s">
         <v>15</v>
       </c>
@@ -7081,8 +7466,8 @@
       <c r="O2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
       <c r="C3" s="37" t="s">
         <v>23</v>
       </c>
@@ -7102,8 +7487,8 @@
       <c r="O3" s="48"/>
     </row>
     <row r="4" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="47" t="s">
         <v>31</v>
       </c>
@@ -7123,11 +7508,11 @@
       <c r="O4" s="48"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B5" s="56"/>
-      <c r="C5" s="57" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="60" t="s">
         <v>107</v>
       </c>
       <c r="E5" s="46"/>
@@ -7143,9 +7528,9 @@
       <c r="O5" s="48"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B6" s="56"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="46"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
@@ -7159,78 +7544,78 @@
       <c r="O6" s="48"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B7" s="56"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
       <c r="E7" s="48"/>
     </row>
     <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="56"/>
-      <c r="C8" s="57" t="s">
+      <c r="B8" s="58"/>
+      <c r="C8" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="60" t="s">
         <v>134</v>
       </c>
       <c r="E8" s="48"/>
     </row>
     <row r="9" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="56"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
       <c r="E9" s="48"/>
     </row>
     <row r="10" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="48"/>
     </row>
     <row r="11" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="56"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="60"/>
     </row>
     <row r="12" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="56"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
     </row>
     <row r="13" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="56"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B14" s="56"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="60"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B16" s="56"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17" s="49"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B18" s="49"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19" s="49"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="49"/>
@@ -7311,8 +7696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -7365,11 +7750,11 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="55" t="s">
-        <v>135</v>
-      </c>
-      <c r="B2" s="56"/>
-      <c r="C2" s="37" t="s">
+      <c r="A2" s="57" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" s="58"/>
+      <c r="C2" s="50" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="43" t="s">
@@ -7388,9 +7773,9 @@
       <c r="O2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="37" t="s">
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="50" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="43" t="s">
@@ -7409,9 +7794,9 @@
       <c r="O3" s="48"/>
     </row>
     <row r="4" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="55"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="47" t="s">
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="51" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="45" t="s">
@@ -7430,11 +7815,11 @@
       <c r="O4" s="48"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B5" s="56"/>
-      <c r="C5" s="57" t="s">
+      <c r="B5" s="58"/>
+      <c r="C5" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="60" t="s">
         <v>107</v>
       </c>
       <c r="E5" s="46"/>
@@ -7450,9 +7835,9 @@
       <c r="O5" s="48"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B6" s="56"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="58"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
       <c r="E6" s="46"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
@@ -7466,82 +7851,78 @@
       <c r="O6" s="48"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B7" s="56"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="58"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
       <c r="E7" s="48"/>
     </row>
     <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="56"/>
-      <c r="C8" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="58" t="s">
-        <v>137</v>
+      <c r="B8" s="58"/>
+      <c r="C8" s="59" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>202</v>
       </c>
       <c r="E8" s="48"/>
     </row>
     <row r="9" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="56"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="58"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
       <c r="E9" s="48"/>
     </row>
     <row r="10" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="56"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="48"/>
     </row>
     <row r="11" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="56"/>
-      <c r="C11" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="D11" s="58" t="s">
-        <v>138</v>
-      </c>
+      <c r="B11" s="58"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="60"/>
     </row>
     <row r="12" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="56"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
     </row>
     <row r="13" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="56"/>
-      <c r="C13" s="57"/>
-      <c r="D13" s="58"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B14" s="56"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="58"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="60"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
-      <c r="B15" s="56"/>
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B16" s="56"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="58"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17" s="49"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="58"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B18" s="49"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="58"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19" s="49"/>
-      <c r="C19" s="57"/>
-      <c r="D19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="49"/>

--- a/gd/副本内容设计/第三、四章美术需求.xlsx
+++ b/gd/副本内容设计/第三、四章美术需求.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="规范" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="204">
   <si>
     <t>id</t>
   </si>
@@ -924,23 +924,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>bossXXX1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossXXX2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bossXXX3</t>
-  </si>
-  <si>
-    <t>bossXXX4</t>
-  </si>
-  <si>
-    <t>bossXXX5</t>
-  </si>
-  <si>
     <t>右上武器，挂接点名：wp_ruweapon，mesh名称：mesh_ruweapon</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1020,6 +1003,30 @@
   </si>
   <si>
     <t>护盾，挂接点名：wp_shield，mesh名称：mesh_shield</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bosshehuaisituosi1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bosshehuaisituosi2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bosshehuaisituosi3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bosshehuaisituosi4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bosshehuaisituosi5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xgMomo1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2724,7 +2731,7 @@
   <dimension ref="A1:Q38"/>
   <sheetViews>
     <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -3559,11 +3566,11 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A20:A31"/>
-    <mergeCell ref="B20:B31"/>
-    <mergeCell ref="C20:C31"/>
-    <mergeCell ref="D20:D31"/>
-    <mergeCell ref="E20:E31"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="C2:C13"/>
+    <mergeCell ref="D2:D13"/>
+    <mergeCell ref="E2:E13"/>
     <mergeCell ref="F20:F31"/>
     <mergeCell ref="G2:G13"/>
     <mergeCell ref="J2:J12"/>
@@ -3578,11 +3585,11 @@
     <mergeCell ref="I23:I25"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="I27:I28"/>
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="C2:C13"/>
-    <mergeCell ref="D2:D13"/>
-    <mergeCell ref="E2:E13"/>
+    <mergeCell ref="A20:A31"/>
+    <mergeCell ref="B20:B31"/>
+    <mergeCell ref="C20:C31"/>
+    <mergeCell ref="D20:D31"/>
+    <mergeCell ref="E20:E31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5159,7 +5166,7 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -5479,8 +5486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -5536,7 +5543,7 @@
     </row>
     <row r="2" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="57" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B2" s="58"/>
       <c r="C2" s="37" t="s">
@@ -5549,14 +5556,14 @@
         <v>161</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G2" s="29" t="s">
         <v>162</v>
       </c>
       <c r="H2" s="48"/>
       <c r="J2" s="48" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="K2" s="48"/>
       <c r="L2" s="48"/>
@@ -5576,7 +5583,7 @@
         <v>163</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G3" s="29" t="s">
         <v>164</v>
@@ -5584,7 +5591,7 @@
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="48" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="K3" s="48"/>
       <c r="L3" s="48"/>
@@ -5614,7 +5621,7 @@
       </c>
       <c r="I4" s="48"/>
       <c r="J4" s="48" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -5624,10 +5631,10 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B5" s="58"/>
       <c r="C5" s="59" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="E5" s="36" t="s">
         <v>168</v>
@@ -5643,7 +5650,7 @@
       </c>
       <c r="I5" s="48"/>
       <c r="J5" s="48" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -5668,7 +5675,7 @@
       </c>
       <c r="I6" s="48"/>
       <c r="J6" s="48" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="K6" s="48"/>
       <c r="L6" s="48"/>
@@ -5687,7 +5694,7 @@
         <v>112</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E8" s="48"/>
     </row>
@@ -5709,7 +5716,7 @@
         <v>113</v>
       </c>
       <c r="D11" s="60" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
@@ -5728,7 +5735,7 @@
         <v>108</v>
       </c>
       <c r="D14" s="60" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
@@ -5748,7 +5755,7 @@
         <v>123</v>
       </c>
       <c r="D17" s="60" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
@@ -5764,10 +5771,10 @@
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="49"/>
       <c r="C20" s="59" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D20" s="60" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
@@ -5948,8 +5955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:G14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -6054,8 +6061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6104,7 +6111,7 @@
     </row>
     <row r="2" spans="1:12" s="34" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A2" s="29" t="s">
-        <v>92</v>
+        <v>203</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>15</v>
@@ -6218,17 +6225,17 @@
         <v>153</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="H2" s="48" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="I2" s="48"/>
       <c r="J2" s="48" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K2" s="48"/>
       <c r="L2" s="48"/>
@@ -6451,7 +6458,7 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -7141,13 +7148,13 @@
         <v>153</v>
       </c>
       <c r="F2" s="48" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="G2" s="48" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="H2" s="48" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="I2" s="48"/>
       <c r="J2" s="48" t="s">
@@ -7696,8 +7703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -7751,7 +7758,7 @@
     </row>
     <row r="2" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="57" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B2" s="58"/>
       <c r="C2" s="50" t="s">
@@ -7859,10 +7866,10 @@
     <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="58"/>
       <c r="C8" s="59" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D8" s="60" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="E8" s="48"/>
     </row>

--- a/gd/副本内容设计/第三、四章美术需求.xlsx
+++ b/gd/副本内容设计/第三、四章美术需求.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035" firstSheet="6" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="规范" sheetId="1" r:id="rId1"/>
@@ -25,10 +25,12 @@
     <sheet name="bosshuoshan41Hongniu4——mesh" sheetId="11" r:id="rId11"/>
     <sheet name="bosshuoshan42Daochengsizhong4——" sheetId="12" r:id="rId12"/>
     <sheet name="bosshuoshan43Huoniao4——mesh" sheetId="13" r:id="rId13"/>
-    <sheet name="bosshuoshan44Datiangou4——mesh" sheetId="14" r:id="rId14"/>
-    <sheet name="bosshuoshan47Ifrit4——mesh" sheetId="15" r:id="rId15"/>
-    <sheet name="bosshuoshan48hehuaisituosi4——新增" sheetId="16" r:id="rId16"/>
-    <sheet name="xgPiying2——换色" sheetId="2" r:id="rId17"/>
+    <sheet name="bosshuoshan44Datiangou4—mesh，动作" sheetId="14" r:id="rId14"/>
+    <sheet name="bosshuoshan45Saibulesi4——mesh" sheetId="18" r:id="rId15"/>
+    <sheet name="bosshuoshan46Tianshizhang4—mesh" sheetId="19" r:id="rId16"/>
+    <sheet name="bosshuoshan47Ifrit4——mesh，动作" sheetId="15" r:id="rId17"/>
+    <sheet name="bosshuoshan48hehuaisituosi4——新增" sheetId="16" r:id="rId18"/>
+    <sheet name="xgPiying2——换色" sheetId="2" r:id="rId19"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="214">
   <si>
     <t>id</t>
   </si>
@@ -1027,6 +1029,46 @@
   </si>
   <si>
     <t>xgMomo1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bosshuoshan45Saibulesi4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中头，挂接点名：wp_mhead，mesh名称：mesh_mhead</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点3（挂接点）+mesh</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点4（挂接点）+mesh</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>右头，挂接点名：wp_rhead，mesh名称：mesh_rhead</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左头，挂接点名：wp_lhead，mesh名称：mesh_lhead</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bosshuoshan46Tianshizhang4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>光环，挂接点名：wp_aura，mesh名称：mesh_aura</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱点5（挂接点）+mesh</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器，挂接点名：wp_weapon，mesh名称：mesh_weapon</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1247,7 +1289,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1395,6 +1437,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1664,6 +1712,546 @@
 
 <file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47624</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="3" name="组合 2"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="0" y="2609850"/>
+          <a:ext cx="4076699" cy="3086100"/>
+          <a:chOff x="4771735" y="145446750"/>
+          <a:chExt cx="5237897" cy="3590142"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="4" name="图片 3"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4771735" y="145446750"/>
+            <a:ext cx="5237897" cy="3590142"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="5" name="组合 4"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="7877175" y="147123150"/>
+            <a:ext cx="339717" cy="367782"/>
+            <a:chOff x="6433029" y="7907966"/>
+            <a:chExt cx="389951" cy="367782"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15" name="椭圆 14"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6433029" y="7962900"/>
+              <a:ext cx="389951" cy="312848"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="16" name="文本框 15"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6451242" y="7907966"/>
+              <a:ext cx="295203" cy="332910"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="00B0F0"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>3</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="6" name="组合 5"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="9067800" y="147151725"/>
+            <a:ext cx="339717" cy="367782"/>
+            <a:chOff x="6433029" y="7907966"/>
+            <a:chExt cx="389951" cy="367782"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="13" name="椭圆 12"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6433029" y="7962900"/>
+              <a:ext cx="389951" cy="312848"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="14" name="文本框 13"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6451242" y="7907966"/>
+              <a:ext cx="295203" cy="332910"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="00B0F0"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>4</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="7" name="组合 6"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5572125" y="145703925"/>
+            <a:ext cx="339717" cy="367782"/>
+            <a:chOff x="6433029" y="7907966"/>
+            <a:chExt cx="389951" cy="367782"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="11" name="椭圆 10"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6433029" y="7962900"/>
+              <a:ext cx="389951" cy="312848"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="12" name="文本框 11"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6451242" y="7907966"/>
+              <a:ext cx="295203" cy="332910"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="00B0F0"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>2</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="00B0F0"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="8" name="组合 7"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="5476875" y="146646900"/>
+            <a:ext cx="441339" cy="402186"/>
+            <a:chOff x="4973379" y="4187667"/>
+            <a:chExt cx="502896" cy="472543"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="文本框 8"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5018346" y="4187667"/>
+              <a:ext cx="457929" cy="428600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:noAutofit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="2000" b="1">
+                  <a:solidFill>
+                    <a:srgbClr val="FF0000"/>
+                  </a:solidFill>
+                </a:rPr>
+                <a:t>1</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="10" name="椭圆 9"/>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4973379" y="4224574"/>
+              <a:ext cx="428624" cy="435636"/>
+            </a:xfrm>
+            <a:prstGeom prst="ellipse">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="2">
+              <a:schemeClr val="accent1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:lnRef>
+            <a:fillRef idx="1">
+              <a:schemeClr val="accent1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="accent1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="lt1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="l"/>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1190625</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>107281</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="2609851"/>
+          <a:ext cx="3324225" cy="2793330"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1705,7 +2293,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1748,7 +2336,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2803,20 +3391,20 @@
       <c r="Q1" s="1"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="54"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="7" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="53" t="s">
+      <c r="J2" s="55" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="9" t="s">
@@ -2836,20 +3424,20 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A3" s="52"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="54"/>
+      <c r="A3" s="54"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="53"/>
+      <c r="J3" s="55"/>
       <c r="K3" s="9" t="s">
         <v>25</v>
       </c>
@@ -2870,20 +3458,20 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="52"/>
-      <c r="G4" s="54"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="55"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="7" t="s">
         <v>31</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="53"/>
+      <c r="J4" s="55"/>
       <c r="K4" s="9" t="s">
         <v>33</v>
       </c>
@@ -2904,20 +3492,20 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A5" s="52"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="53" t="s">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="55" t="s">
+      <c r="I5" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="J5" s="53"/>
+      <c r="J5" s="55"/>
       <c r="K5" s="9" t="s">
         <v>39</v>
       </c>
@@ -2935,16 +3523,16 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A6" s="52"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="53"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="55"/>
       <c r="K6" s="9" t="s">
         <v>43</v>
       </c>
@@ -2962,16 +3550,16 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A7" s="52"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="53"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="55"/>
       <c r="K7" s="9" t="s">
         <v>47</v>
       </c>
@@ -2989,16 +3577,16 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A8" s="52"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="54"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="56"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
-      <c r="J8" s="53"/>
+      <c r="J8" s="55"/>
       <c r="K8" s="9" t="s">
         <v>51</v>
       </c>
@@ -3016,20 +3604,20 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A9" s="52"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="53" t="s">
+      <c r="A9" s="54"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="I9" s="55" t="s">
+      <c r="I9" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="J9" s="53"/>
+      <c r="J9" s="55"/>
       <c r="K9" s="9" t="s">
         <v>57</v>
       </c>
@@ -3047,16 +3635,16 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A10" s="52"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="53"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="55"/>
       <c r="K10" s="9" t="s">
         <v>60</v>
       </c>
@@ -3074,16 +3662,16 @@
       </c>
     </row>
     <row r="11" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="52"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="54"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="56"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-      <c r="J11" s="53"/>
+      <c r="J11" s="55"/>
       <c r="K11" s="9" t="s">
         <v>64</v>
       </c>
@@ -3101,16 +3689,16 @@
       </c>
     </row>
     <row r="12" spans="1:17" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="52"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="54"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="56"/>
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
-      <c r="J12" s="53"/>
+      <c r="J12" s="55"/>
       <c r="K12" s="12" t="s">
         <v>68</v>
       </c>
@@ -3128,13 +3716,13 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="54"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="56"/>
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
       <c r="J13" s="7" t="s">
@@ -3186,13 +3774,13 @@
     </row>
     <row r="19" spans="1:16" s="21" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="52"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="56" t="s">
+      <c r="A20" s="54"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="58" t="s">
         <v>80</v>
       </c>
       <c r="H20" s="7" t="s">
@@ -3201,7 +3789,7 @@
       <c r="I20" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="53" t="s">
+      <c r="J20" s="55" t="s">
         <v>17</v>
       </c>
       <c r="K20" s="9" t="s">
@@ -3221,20 +3809,20 @@
       </c>
     </row>
     <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="52"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="56"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="58"/>
       <c r="H21" s="7" t="s">
         <v>23</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="J21" s="53"/>
+      <c r="J21" s="55"/>
       <c r="K21" s="9" t="s">
         <v>25</v>
       </c>
@@ -3255,20 +3843,20 @@
       </c>
     </row>
     <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="52"/>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="56"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="58"/>
       <c r="H22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="I22" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="J22" s="53"/>
+      <c r="J22" s="55"/>
       <c r="K22" s="9" t="s">
         <v>33</v>
       </c>
@@ -3289,20 +3877,20 @@
       </c>
     </row>
     <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="52"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="53" t="s">
+      <c r="A23" s="54"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="I23" s="55" t="s">
+      <c r="I23" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="J23" s="53"/>
+      <c r="J23" s="55"/>
       <c r="K23" s="9" t="s">
         <v>39</v>
       </c>
@@ -3320,16 +3908,16 @@
       </c>
     </row>
     <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="52"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="56"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="53"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="55"/>
       <c r="K24" s="9" t="s">
         <v>43</v>
       </c>
@@ -3347,16 +3935,16 @@
       </c>
     </row>
     <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="52"/>
-      <c r="B25" s="53"/>
-      <c r="C25" s="53"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="53"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="56"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="53"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="54"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="55"/>
       <c r="K25" s="9" t="s">
         <v>47</v>
       </c>
@@ -3374,16 +3962,16 @@
       </c>
     </row>
     <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="52"/>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="52"/>
-      <c r="G26" s="56"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="58"/>
       <c r="H26" s="7"/>
       <c r="I26" s="7"/>
-      <c r="J26" s="53"/>
+      <c r="J26" s="55"/>
       <c r="K26" s="9" t="s">
         <v>51</v>
       </c>
@@ -3401,20 +3989,20 @@
       </c>
     </row>
     <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="52"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="56"/>
-      <c r="H27" s="53" t="s">
+      <c r="A27" s="54"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="58"/>
+      <c r="H27" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="I27" s="55" t="s">
+      <c r="I27" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="J27" s="53"/>
+      <c r="J27" s="55"/>
       <c r="K27" s="9" t="s">
         <v>57</v>
       </c>
@@ -3432,16 +4020,16 @@
       </c>
     </row>
     <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="52"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="56"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="53"/>
+      <c r="A28" s="54"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="54"/>
+      <c r="G28" s="58"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="55"/>
       <c r="K28" s="9" t="s">
         <v>60</v>
       </c>
@@ -3459,16 +4047,16 @@
       </c>
     </row>
     <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="52"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="56"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="58"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
-      <c r="J29" s="53"/>
+      <c r="J29" s="55"/>
       <c r="K29" s="9" t="s">
         <v>64</v>
       </c>
@@ -3486,16 +4074,16 @@
       </c>
     </row>
     <row r="30" spans="1:16" ht="17.25" hidden="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="52"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="56"/>
+      <c r="A30" s="54"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="58"/>
       <c r="H30" s="7"/>
       <c r="I30" s="7"/>
-      <c r="J30" s="53"/>
+      <c r="J30" s="55"/>
       <c r="K30" s="22" t="s">
         <v>83</v>
       </c>
@@ -3516,13 +4104,13 @@
       </c>
     </row>
     <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="52"/>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="53"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="56"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="55"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="58"/>
       <c r="H31" s="7"/>
       <c r="I31" s="7"/>
       <c r="J31" s="7" t="s">
@@ -3566,11 +4154,11 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A2:A13"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="C2:C13"/>
-    <mergeCell ref="D2:D13"/>
-    <mergeCell ref="E2:E13"/>
+    <mergeCell ref="A20:A31"/>
+    <mergeCell ref="B20:B31"/>
+    <mergeCell ref="C20:C31"/>
+    <mergeCell ref="D20:D31"/>
+    <mergeCell ref="E20:E31"/>
     <mergeCell ref="F20:F31"/>
     <mergeCell ref="G2:G13"/>
     <mergeCell ref="J2:J12"/>
@@ -3585,11 +4173,11 @@
     <mergeCell ref="I23:I25"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="I27:I28"/>
-    <mergeCell ref="A20:A31"/>
-    <mergeCell ref="B20:B31"/>
-    <mergeCell ref="C20:C31"/>
-    <mergeCell ref="D20:D31"/>
-    <mergeCell ref="E20:E31"/>
+    <mergeCell ref="A2:A13"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="C2:C13"/>
+    <mergeCell ref="D2:D13"/>
+    <mergeCell ref="E2:E13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3600,8 +4188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -3654,10 +4242,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="37" t="s">
         <v>15</v>
       </c>
@@ -3677,8 +4265,8 @@
       <c r="O2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="57"/>
-      <c r="B3" s="58"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="37" t="s">
         <v>23</v>
       </c>
@@ -3698,8 +4286,8 @@
       <c r="O3" s="48"/>
     </row>
     <row r="4" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="47" t="s">
         <v>31</v>
       </c>
@@ -3719,11 +4307,11 @@
       <c r="O4" s="48"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B5" s="58"/>
-      <c r="C5" s="59" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="62" t="s">
         <v>107</v>
       </c>
       <c r="E5" s="46"/>
@@ -3739,9 +4327,9 @@
       <c r="O5" s="48"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="46"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
@@ -3755,82 +4343,82 @@
       <c r="O6" s="48"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B7" s="58"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
       <c r="E7" s="48"/>
     </row>
     <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="58"/>
-      <c r="C8" s="59" t="s">
+      <c r="B8" s="60"/>
+      <c r="C8" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="62" t="s">
         <v>137</v>
       </c>
       <c r="E8" s="48"/>
     </row>
     <row r="9" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="58"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
       <c r="E9" s="48"/>
     </row>
     <row r="10" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="58"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
       <c r="E10" s="48"/>
     </row>
     <row r="11" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="58"/>
-      <c r="C11" s="59" t="s">
+      <c r="B11" s="60"/>
+      <c r="C11" s="61" t="s">
         <v>136</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="62" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
     </row>
     <row r="13" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B14" s="58"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B16" s="58"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17" s="49"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B18" s="49"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19" s="49"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="62"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="49"/>
@@ -3965,10 +4553,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="37" t="s">
         <v>15</v>
       </c>
@@ -3988,8 +4576,8 @@
       <c r="O2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="57"/>
-      <c r="B3" s="58"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="37" t="s">
         <v>23</v>
       </c>
@@ -4009,8 +4597,8 @@
       <c r="O3" s="48"/>
     </row>
     <row r="4" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="47" t="s">
         <v>31</v>
       </c>
@@ -4030,11 +4618,11 @@
       <c r="O4" s="48"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B5" s="58"/>
-      <c r="C5" s="59" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="62" t="s">
         <v>107</v>
       </c>
       <c r="E5" s="46"/>
@@ -4050,9 +4638,9 @@
       <c r="O5" s="48"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="46"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
@@ -4066,82 +4654,82 @@
       <c r="O6" s="48"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B7" s="58"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
       <c r="E7" s="48"/>
     </row>
     <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="58"/>
-      <c r="C8" s="59" t="s">
+      <c r="B8" s="60"/>
+      <c r="C8" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="62" t="s">
         <v>109</v>
       </c>
       <c r="E8" s="48"/>
     </row>
     <row r="9" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="58"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
       <c r="E9" s="48"/>
     </row>
     <row r="10" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="58"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
       <c r="E10" s="48"/>
     </row>
     <row r="11" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="58"/>
-      <c r="C11" s="59" t="s">
+      <c r="B11" s="60"/>
+      <c r="C11" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="62" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
     </row>
     <row r="13" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B14" s="58"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B16" s="58"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17" s="49"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B18" s="49"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19" s="49"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="62"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="49"/>
@@ -4276,10 +4864,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="59" t="s">
         <v>140</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="37" t="s">
         <v>15</v>
       </c>
@@ -4299,8 +4887,8 @@
       <c r="O2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="57"/>
-      <c r="B3" s="58"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="37" t="s">
         <v>23</v>
       </c>
@@ -4320,8 +4908,8 @@
       <c r="O3" s="48"/>
     </row>
     <row r="4" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="47" t="s">
         <v>31</v>
       </c>
@@ -4341,11 +4929,11 @@
       <c r="O4" s="48"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B5" s="58"/>
-      <c r="C5" s="59" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="62" t="s">
         <v>107</v>
       </c>
       <c r="E5" s="46"/>
@@ -4361,9 +4949,9 @@
       <c r="O5" s="48"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="46"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
@@ -4377,82 +4965,82 @@
       <c r="O6" s="48"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B7" s="58"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
       <c r="E7" s="48"/>
     </row>
     <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="58"/>
-      <c r="C8" s="59" t="s">
+      <c r="B8" s="60"/>
+      <c r="C8" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="62" t="s">
         <v>141</v>
       </c>
       <c r="E8" s="48"/>
     </row>
     <row r="9" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="58"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
       <c r="E9" s="48"/>
     </row>
     <row r="10" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="58"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
       <c r="E10" s="48"/>
     </row>
     <row r="11" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="58"/>
-      <c r="C11" s="59" t="s">
+      <c r="B11" s="60"/>
+      <c r="C11" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="62" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
     </row>
     <row r="13" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B14" s="58"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B16" s="58"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17" s="49"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B18" s="49"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19" s="49"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="62"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="49"/>
@@ -4534,7 +5122,7 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D14" sqref="D14:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -4587,10 +5175,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="37" t="s">
         <v>15</v>
       </c>
@@ -4610,8 +5198,8 @@
       <c r="O2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="57"/>
-      <c r="B3" s="58"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="37" t="s">
         <v>23</v>
       </c>
@@ -4631,8 +5219,8 @@
       <c r="O3" s="48"/>
     </row>
     <row r="4" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="47" t="s">
         <v>31</v>
       </c>
@@ -4652,11 +5240,11 @@
       <c r="O4" s="48"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B5" s="58"/>
-      <c r="C5" s="59" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="62" t="s">
         <v>107</v>
       </c>
       <c r="E5" s="46"/>
@@ -4672,9 +5260,9 @@
       <c r="O5" s="48"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="46"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
@@ -4688,86 +5276,86 @@
       <c r="O6" s="48"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B7" s="58"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
       <c r="E7" s="48"/>
     </row>
     <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="58"/>
-      <c r="C8" s="59" t="s">
+      <c r="B8" s="60"/>
+      <c r="C8" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="62" t="s">
         <v>144</v>
       </c>
       <c r="E8" s="48"/>
     </row>
     <row r="9" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="58"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
       <c r="E9" s="48"/>
     </row>
     <row r="10" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="58"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
       <c r="E10" s="48"/>
     </row>
     <row r="11" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="58"/>
-      <c r="C11" s="59" t="s">
+      <c r="B11" s="60"/>
+      <c r="C11" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="62" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
     </row>
     <row r="13" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
     </row>
     <row r="14" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="58"/>
-      <c r="C14" s="59" t="s">
+      <c r="B14" s="60"/>
+      <c r="C14" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="62" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
     </row>
     <row r="16" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="58"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17" s="49"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B18" s="49"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19" s="49"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="62"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="49"/>
@@ -4849,7 +5437,7 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:J2"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -4901,10 +5489,10 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="59" t="s">
         <v>147</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="37" t="s">
         <v>15</v>
       </c>
@@ -4931,8 +5519,8 @@
       <c r="N2" s="48"/>
     </row>
     <row r="3" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="57"/>
-      <c r="B3" s="58"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="37" t="s">
         <v>23</v>
       </c>
@@ -4951,8 +5539,8 @@
       <c r="N3" s="48"/>
     </row>
     <row r="4" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="47" t="s">
         <v>31</v>
       </c>
@@ -4971,11 +5559,11 @@
       <c r="N4" s="48"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B5" s="58"/>
-      <c r="C5" s="59" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="62" t="s">
         <v>107</v>
       </c>
       <c r="E5" s="46"/>
@@ -4990,9 +5578,9 @@
       <c r="N5" s="48"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="46"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
@@ -5005,86 +5593,86 @@
       <c r="N6" s="48"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B7" s="58"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
       <c r="E7" s="48"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="58"/>
-      <c r="C8" s="59" t="s">
+      <c r="B8" s="60"/>
+      <c r="C8" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="62" t="s">
         <v>137</v>
       </c>
       <c r="E8" s="48"/>
     </row>
     <row r="9" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="58"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
       <c r="E9" s="48"/>
     </row>
     <row r="10" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="58"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
       <c r="E10" s="48"/>
     </row>
     <row r="11" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="58"/>
-      <c r="C11" s="59" t="s">
+      <c r="B11" s="60"/>
+      <c r="C11" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="62" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
     </row>
     <row r="13" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
     </row>
     <row r="14" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="58"/>
-      <c r="C14" s="59" t="s">
+      <c r="B14" s="60"/>
+      <c r="C14" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="62" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
     </row>
     <row r="16" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="58"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17" s="49"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B18" s="49"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19" s="49"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="62"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="49"/>
@@ -5166,7 +5754,7 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -5177,11 +5765,8 @@
     <col min="4" max="4" width="28.375" style="42" customWidth="1"/>
     <col min="5" max="5" width="13.875" style="42" customWidth="1"/>
     <col min="6" max="6" width="9" style="42"/>
-    <col min="7" max="7" width="70.375" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.125" style="42" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="42"/>
-    <col min="10" max="10" width="14.125" style="42" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="42"/>
+    <col min="7" max="7" width="31.125" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -5221,40 +5806,31 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="58"/>
-      <c r="C2" s="37" t="s">
+      <c r="A2" s="59" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="60"/>
+      <c r="C2" s="52" t="s">
         <v>15</v>
       </c>
       <c r="D2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="G2" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="H2" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="J2" s="48" t="s">
-        <v>160</v>
-      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
       <c r="K2" s="48"/>
       <c r="L2" s="48"/>
       <c r="M2" s="48"/>
       <c r="N2" s="48"/>
     </row>
     <row r="3" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="57"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="37" t="s">
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="52" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="43" t="s">
@@ -5272,9 +5848,9 @@
       <c r="N3" s="48"/>
     </row>
     <row r="4" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="47" t="s">
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="53" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="45" t="s">
@@ -5292,11 +5868,11 @@
       <c r="N4" s="48"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B5" s="58"/>
-      <c r="C5" s="59" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="62" t="s">
         <v>107</v>
       </c>
       <c r="E5" s="46"/>
@@ -5311,9 +5887,9 @@
       <c r="N5" s="48"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="46"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
@@ -5326,86 +5902,86 @@
       <c r="N6" s="48"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B7" s="58"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
       <c r="E7" s="48"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="58"/>
-      <c r="C8" s="59" t="s">
+      <c r="B8" s="60"/>
+      <c r="C8" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="60" t="s">
-        <v>150</v>
+      <c r="D8" s="62" t="s">
+        <v>205</v>
       </c>
       <c r="E8" s="48"/>
     </row>
     <row r="9" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="58"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
       <c r="E9" s="48"/>
     </row>
     <row r="10" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="58"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
       <c r="E10" s="48"/>
     </row>
     <row r="11" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="58"/>
-      <c r="C11" s="59" t="s">
-        <v>113</v>
-      </c>
-      <c r="D11" s="60" t="s">
-        <v>151</v>
+      <c r="B11" s="60"/>
+      <c r="C11" s="61" t="s">
+        <v>206</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
     </row>
     <row r="13" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
     </row>
     <row r="14" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="58"/>
-      <c r="C14" s="59" t="s">
-        <v>108</v>
-      </c>
-      <c r="D14" s="60" t="s">
-        <v>152</v>
+      <c r="B14" s="60"/>
+      <c r="C14" s="61" t="s">
+        <v>207</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
     </row>
     <row r="16" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="58"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17" s="49"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B18" s="49"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19" s="49"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="62"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="49"/>
@@ -5486,6 +6062,640 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="28" style="42" customWidth="1"/>
+    <col min="2" max="2" width="27.125" style="42" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="42" customWidth="1"/>
+    <col min="4" max="4" width="28.375" style="42" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="42" customWidth="1"/>
+    <col min="6" max="6" width="9" style="42"/>
+    <col min="7" max="7" width="31.125" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="59" t="s">
+        <v>210</v>
+      </c>
+      <c r="B2" s="60"/>
+      <c r="C2" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="15"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+    </row>
+    <row r="3" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="46"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+    </row>
+    <row r="4" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="53" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="46"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B5" s="60"/>
+      <c r="C5" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="48"/>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="60"/>
+      <c r="C8" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="E8" s="48"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="48"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="48"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="60"/>
+      <c r="C11" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="60"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="60"/>
+      <c r="C14" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="34"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="60"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="49"/>
+      <c r="C17" s="61" t="s">
+        <v>212</v>
+      </c>
+      <c r="D17" s="62" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18" s="49"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="49"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="62"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="49"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="49"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="49"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="49"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="49"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="49"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="49"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="49"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="49"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="49"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="49"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="49"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="49"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" s="49"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" s="49"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" s="49"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" s="49"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.75" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.125" style="42" customWidth="1"/>
+    <col min="3" max="3" width="15.75" style="42" customWidth="1"/>
+    <col min="4" max="4" width="28.375" style="42" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="42" customWidth="1"/>
+    <col min="6" max="6" width="9" style="42"/>
+    <col min="7" max="7" width="70.375" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.125" style="42" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="42"/>
+    <col min="10" max="10" width="14.125" style="42" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>91</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="59" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="60"/>
+      <c r="C2" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>157</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+    </row>
+    <row r="3" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="46"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="48"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="48"/>
+      <c r="N3" s="48"/>
+    </row>
+    <row r="4" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
+      <c r="C4" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="46"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="48"/>
+      <c r="N4" s="48"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B5" s="60"/>
+      <c r="C5" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
+      <c r="N6" s="48"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="48"/>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="60"/>
+      <c r="C8" s="61" t="s">
+        <v>112</v>
+      </c>
+      <c r="D8" s="62" t="s">
+        <v>150</v>
+      </c>
+      <c r="E8" s="48"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="48"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
+      <c r="E10" s="48"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="60"/>
+      <c r="C11" s="61" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" s="62" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="60"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
+    </row>
+    <row r="13" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
+    </row>
+    <row r="14" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="60"/>
+      <c r="C14" s="61" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="62" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="34"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
+    </row>
+    <row r="16" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="60"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B17" s="49"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B18" s="49"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B19" s="49"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="62"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B20" s="49"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B21" s="49"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B22" s="49"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B23" s="49"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B24" s="49"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B25" s="49"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B26" s="49"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B27" s="49"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B28" s="49"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B29" s="49"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B30" s="49"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B31" s="49"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B32" s="49"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" s="49"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B34" s="49"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B35" s="49"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B36" s="49"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B37" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D17:D19"/>
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N37"/>
+  <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
@@ -5542,10 +6752,10 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="59" t="s">
         <v>191</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="37" t="s">
         <v>15</v>
       </c>
@@ -5571,8 +6781,8 @@
       <c r="N2" s="48"/>
     </row>
     <row r="3" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="57"/>
-      <c r="B3" s="58"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="37" t="s">
         <v>23</v>
       </c>
@@ -5599,8 +6809,8 @@
       <c r="N3" s="48"/>
     </row>
     <row r="4" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="47" t="s">
         <v>31</v>
       </c>
@@ -5629,11 +6839,11 @@
       <c r="N4" s="48"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B5" s="58"/>
-      <c r="C5" s="59" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="61" t="s">
         <v>187</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="62" t="s">
         <v>188</v>
       </c>
       <c r="E5" s="36" t="s">
@@ -5658,9 +6868,9 @@
       <c r="N5" s="48"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="36" t="s">
         <v>171</v>
       </c>
@@ -5683,109 +6893,109 @@
       <c r="N6" s="48"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B7" s="58"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
       <c r="E7" s="48"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="58"/>
-      <c r="C8" s="59" t="s">
+      <c r="B8" s="60"/>
+      <c r="C8" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="62" t="s">
         <v>177</v>
       </c>
       <c r="E8" s="48"/>
     </row>
     <row r="9" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="58"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
       <c r="E9" s="48"/>
     </row>
     <row r="10" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="58"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
       <c r="E10" s="48"/>
     </row>
     <row r="11" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="58"/>
-      <c r="C11" s="59" t="s">
+      <c r="B11" s="60"/>
+      <c r="C11" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="62" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
     </row>
     <row r="13" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
     </row>
     <row r="14" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="58"/>
-      <c r="C14" s="59" t="s">
+      <c r="B14" s="60"/>
+      <c r="C14" s="61" t="s">
         <v>108</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="62" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
     </row>
     <row r="16" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="58"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62"/>
     </row>
     <row r="17" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="49"/>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="60" t="s">
+      <c r="D17" s="62" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="49"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
     </row>
     <row r="19" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="49"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="62"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="49"/>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="61" t="s">
         <v>185</v>
       </c>
-      <c r="D20" s="60" t="s">
+      <c r="D20" s="62" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B21" s="49"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="60"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="62"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B22" s="49"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="60"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="62"/>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B23" s="49"/>
@@ -5855,7 +7065,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
@@ -6061,7 +7271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
@@ -6161,7 +7371,7 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D11" sqref="D11:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -6211,10 +7421,10 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="59" t="s">
         <v>111</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="35" t="s">
         <v>15</v>
       </c>
@@ -6243,8 +7453,8 @@
       <c r="N2" s="48"/>
     </row>
     <row r="3" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="57"/>
-      <c r="B3" s="58"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="35" t="s">
         <v>23</v>
       </c>
@@ -6263,8 +7473,8 @@
       <c r="N3" s="48"/>
     </row>
     <row r="4" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="44" t="s">
         <v>31</v>
       </c>
@@ -6283,11 +7493,11 @@
       <c r="N4" s="48"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B5" s="58"/>
-      <c r="C5" s="59" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="62" t="s">
         <v>107</v>
       </c>
       <c r="E5" s="46"/>
@@ -6302,9 +7512,9 @@
       <c r="N5" s="48"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="46"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
@@ -6317,61 +7527,61 @@
       <c r="N6" s="48"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B7" s="58"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
       <c r="E7" s="48"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="58"/>
-      <c r="C8" s="59" t="s">
+      <c r="B8" s="60"/>
+      <c r="C8" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="62" t="s">
         <v>109</v>
       </c>
       <c r="E8" s="48"/>
     </row>
     <row r="9" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="58"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
       <c r="E9" s="48"/>
     </row>
     <row r="10" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="58"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
       <c r="E10" s="48"/>
     </row>
     <row r="11" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="58"/>
-      <c r="C11" s="59" t="s">
+      <c r="B11" s="60"/>
+      <c r="C11" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="62" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
     </row>
     <row r="13" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B14" s="58"/>
+      <c r="B14" s="60"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
-      <c r="B15" s="58"/>
+      <c r="B15" s="60"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B16" s="58"/>
+      <c r="B16" s="60"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="49"/>
@@ -6511,10 +7721,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="59" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="37" t="s">
         <v>15</v>
       </c>
@@ -6534,8 +7744,8 @@
       <c r="O2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="57"/>
-      <c r="B3" s="58"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="37" t="s">
         <v>23</v>
       </c>
@@ -6555,8 +7765,8 @@
       <c r="O3" s="48"/>
     </row>
     <row r="4" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="47" t="s">
         <v>31</v>
       </c>
@@ -6576,11 +7786,11 @@
       <c r="O4" s="48"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B5" s="58"/>
-      <c r="C5" s="59" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="62" t="s">
         <v>107</v>
       </c>
       <c r="E5" s="46"/>
@@ -6596,9 +7806,9 @@
       <c r="O5" s="48"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="46"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
@@ -6612,71 +7822,71 @@
       <c r="O6" s="48"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B7" s="58"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
       <c r="E7" s="48"/>
     </row>
     <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="58"/>
-      <c r="C8" s="59" t="s">
+      <c r="B8" s="60"/>
+      <c r="C8" s="61" t="s">
         <v>115</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="62" t="s">
         <v>117</v>
       </c>
       <c r="E8" s="48"/>
     </row>
     <row r="9" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="58"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
       <c r="E9" s="48"/>
     </row>
     <row r="10" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="58"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
       <c r="E10" s="48"/>
     </row>
     <row r="11" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="58"/>
-      <c r="C11" s="59" t="s">
+      <c r="B11" s="60"/>
+      <c r="C11" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="62" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
     </row>
     <row r="13" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B14" s="58"/>
-      <c r="C14" s="59" t="s">
+      <c r="B14" s="60"/>
+      <c r="C14" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="62" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B16" s="58"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="49"/>
@@ -6818,10 +8028,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="37" t="s">
         <v>15</v>
       </c>
@@ -6841,8 +8051,8 @@
       <c r="O2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="57"/>
-      <c r="B3" s="58"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="37" t="s">
         <v>23</v>
       </c>
@@ -6862,8 +8072,8 @@
       <c r="O3" s="48"/>
     </row>
     <row r="4" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="47" t="s">
         <v>31</v>
       </c>
@@ -6883,11 +8093,11 @@
       <c r="O4" s="48"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B5" s="58"/>
-      <c r="C5" s="59" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="62" t="s">
         <v>107</v>
       </c>
       <c r="E5" s="46"/>
@@ -6903,9 +8113,9 @@
       <c r="O5" s="48"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="46"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
@@ -6919,90 +8129,90 @@
       <c r="O6" s="48"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B7" s="58"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
       <c r="E7" s="48"/>
     </row>
     <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="58"/>
-      <c r="C8" s="59" t="s">
+      <c r="B8" s="60"/>
+      <c r="C8" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="62" t="s">
         <v>125</v>
       </c>
       <c r="E8" s="48"/>
     </row>
     <row r="9" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="58"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
       <c r="E9" s="48"/>
     </row>
     <row r="10" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="58"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
       <c r="E10" s="48"/>
     </row>
     <row r="11" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="58"/>
-      <c r="C11" s="59" t="s">
+      <c r="B11" s="60"/>
+      <c r="C11" s="61" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="62" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
     </row>
     <row r="13" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B14" s="58"/>
-      <c r="C14" s="59" t="s">
+      <c r="B14" s="60"/>
+      <c r="C14" s="61" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="62" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B16" s="58"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17" s="49"/>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="D17" s="60" t="s">
+      <c r="D17" s="62" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B18" s="49"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19" s="49"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="62"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="49"/>
@@ -7134,10 +8344,10 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="37" t="s">
         <v>15</v>
       </c>
@@ -7166,8 +8376,8 @@
       <c r="N2" s="48"/>
     </row>
     <row r="3" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="57"/>
-      <c r="B3" s="58"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="37" t="s">
         <v>23</v>
       </c>
@@ -7186,8 +8396,8 @@
       <c r="N3" s="48"/>
     </row>
     <row r="4" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="47" t="s">
         <v>31</v>
       </c>
@@ -7206,11 +8416,11 @@
       <c r="N4" s="48"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B5" s="58"/>
-      <c r="C5" s="59" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="62" t="s">
         <v>107</v>
       </c>
       <c r="E5" s="46"/>
@@ -7225,9 +8435,9 @@
       <c r="N5" s="48"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="46"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
@@ -7240,82 +8450,82 @@
       <c r="N6" s="48"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B7" s="58"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
       <c r="E7" s="48"/>
     </row>
     <row r="8" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="58"/>
-      <c r="C8" s="59" t="s">
+      <c r="B8" s="60"/>
+      <c r="C8" s="61" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="62" t="s">
         <v>131</v>
       </c>
       <c r="E8" s="48"/>
     </row>
     <row r="9" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="58"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
       <c r="E9" s="48"/>
     </row>
     <row r="10" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="58"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
       <c r="E10" s="48"/>
     </row>
     <row r="11" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="58"/>
-      <c r="C11" s="59" t="s">
+      <c r="B11" s="60"/>
+      <c r="C11" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="D11" s="60" t="s">
+      <c r="D11" s="62" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
     </row>
     <row r="13" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B14" s="58"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B16" s="58"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17" s="49"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B18" s="49"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19" s="49"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="62"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="49"/>
@@ -7450,10 +8660,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="59" t="s">
         <v>133</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="37" t="s">
         <v>15</v>
       </c>
@@ -7473,8 +8683,8 @@
       <c r="O2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="57"/>
-      <c r="B3" s="58"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="37" t="s">
         <v>23</v>
       </c>
@@ -7494,8 +8704,8 @@
       <c r="O3" s="48"/>
     </row>
     <row r="4" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="47" t="s">
         <v>31</v>
       </c>
@@ -7515,11 +8725,11 @@
       <c r="O4" s="48"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B5" s="58"/>
-      <c r="C5" s="59" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="62" t="s">
         <v>107</v>
       </c>
       <c r="E5" s="46"/>
@@ -7535,9 +8745,9 @@
       <c r="O5" s="48"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="46"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
@@ -7551,78 +8761,78 @@
       <c r="O6" s="48"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B7" s="58"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
       <c r="E7" s="48"/>
     </row>
     <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="58"/>
-      <c r="C8" s="59" t="s">
+      <c r="B8" s="60"/>
+      <c r="C8" s="61" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="62" t="s">
         <v>134</v>
       </c>
       <c r="E8" s="48"/>
     </row>
     <row r="9" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="58"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
       <c r="E9" s="48"/>
     </row>
     <row r="10" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="58"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
       <c r="E10" s="48"/>
     </row>
     <row r="11" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="58"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
     </row>
     <row r="12" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
     </row>
     <row r="13" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B14" s="58"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B16" s="58"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17" s="49"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B18" s="49"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19" s="49"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="62"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="49"/>
@@ -7757,10 +8967,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="59" t="s">
         <v>195</v>
       </c>
-      <c r="B2" s="58"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="50" t="s">
         <v>15</v>
       </c>
@@ -7780,8 +8990,8 @@
       <c r="O2" s="48"/>
     </row>
     <row r="3" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="57"/>
-      <c r="B3" s="58"/>
+      <c r="A3" s="59"/>
+      <c r="B3" s="60"/>
       <c r="C3" s="50" t="s">
         <v>23</v>
       </c>
@@ -7801,8 +9011,8 @@
       <c r="O3" s="48"/>
     </row>
     <row r="4" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
+      <c r="A4" s="59"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="51" t="s">
         <v>31</v>
       </c>
@@ -7822,11 +9032,11 @@
       <c r="O4" s="48"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B5" s="58"/>
-      <c r="C5" s="59" t="s">
+      <c r="B5" s="60"/>
+      <c r="C5" s="61" t="s">
         <v>116</v>
       </c>
-      <c r="D5" s="60" t="s">
+      <c r="D5" s="62" t="s">
         <v>107</v>
       </c>
       <c r="E5" s="46"/>
@@ -7842,9 +9052,9 @@
       <c r="O5" s="48"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B6" s="58"/>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60"/>
+      <c r="B6" s="60"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
       <c r="E6" s="46"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
@@ -7858,78 +9068,78 @@
       <c r="O6" s="48"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B7" s="58"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
+      <c r="B7" s="60"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="62"/>
       <c r="E7" s="48"/>
     </row>
     <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="58"/>
-      <c r="C8" s="59" t="s">
+      <c r="B8" s="60"/>
+      <c r="C8" s="61" t="s">
         <v>196</v>
       </c>
-      <c r="D8" s="60" t="s">
+      <c r="D8" s="62" t="s">
         <v>197</v>
       </c>
       <c r="E8" s="48"/>
     </row>
     <row r="9" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="58"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
       <c r="E9" s="48"/>
     </row>
     <row r="10" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="58"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="62"/>
       <c r="E10" s="48"/>
     </row>
     <row r="11" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="58"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
     </row>
     <row r="12" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="58"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
+      <c r="B12" s="60"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="62"/>
     </row>
     <row r="13" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="58"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="62"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B14" s="58"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
+      <c r="B14" s="60"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="62"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="B16" s="58"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
+      <c r="B16" s="60"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="62"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17" s="49"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="62"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B18" s="49"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19" s="49"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="62"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="49"/>

--- a/gd/副本内容设计/第三、四章美术需求.xlsx
+++ b/gd/副本内容设计/第三、四章美术需求.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035" firstSheet="6" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="规范" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="217">
   <si>
     <t>id</t>
   </si>
@@ -721,22 +721,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>左下爪，挂接点名：wp_ldclaw，mesh名称：mesh_ldclaw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>右下爪，挂接点名：wp_rdclaw，mesh名称：mesh_rdclaw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>右上爪，挂接点名：wp_ruclaw，mesh名称：mesh_ruclaw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>左上爪，挂接点名：wp_luclaw，mesh名称：mesh_luclaw</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>bosssenlin34Amute3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -821,18 +805,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>武器，挂接点名：wp_weapon，mesh名称：mesh_weapon</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>右裤脚，挂接点名：wp_rtrousers，mesh名称：mesh_rtrousers</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>左裤脚，挂接点名：wp_ltrousers，mesh名称：mesh_ltrousers</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>boss技能动作</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1069,6 +1041,46 @@
   </si>
   <si>
     <t>武器，挂接点名：wp_weapon，mesh名称：mesh_weapon</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左下爪，挂接点名：wp_leg6，mesh名称：mesh_leg6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右下爪，挂接点名：wp_leg5，mesh名称：mesh_leg5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右上爪，挂接点名：wp_leg1，mesh名称：mesh_leg1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左上爪，挂接点名：wp_leg2，mesh名称：mesh_leg2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器，挂接点名：wp_stone，mesh名称：mesh_stone</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>右裤脚，挂接点名：wp_rleg，mesh名称：mesh_rleg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>左裤脚，挂接点名：wp_lleg，mesh名称：mesh_lleg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求特效</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对自身施加物理+法术减免护盾，减少99%受到的伤害，持续6回合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>分散之盾</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1152,7 +1164,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1198,6 +1210,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1289,7 +1307,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1476,6 +1494,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4188,8 +4212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11:D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14:C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -4243,7 +4267,7 @@
     </row>
     <row r="2" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="59" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B2" s="60"/>
       <c r="C2" s="37" t="s">
@@ -4354,7 +4378,7 @@
         <v>112</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E8" s="48"/>
     </row>
@@ -4373,10 +4397,10 @@
     <row r="11" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="60"/>
       <c r="C11" s="61" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
@@ -4554,7 +4578,7 @@
     </row>
     <row r="2" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="59" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B2" s="60"/>
       <c r="C2" s="37" t="s">
@@ -4865,7 +4889,7 @@
     </row>
     <row r="2" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="59" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B2" s="60"/>
       <c r="C2" s="37" t="s">
@@ -4976,7 +5000,7 @@
         <v>112</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E8" s="48"/>
     </row>
@@ -4995,10 +5019,10 @@
     <row r="11" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="60"/>
       <c r="C11" s="61" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
@@ -5176,7 +5200,7 @@
     </row>
     <row r="2" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="59" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B2" s="60"/>
       <c r="C2" s="37" t="s">
@@ -5287,7 +5311,7 @@
         <v>112</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E8" s="48"/>
     </row>
@@ -5309,7 +5333,7 @@
         <v>113</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
@@ -5328,7 +5352,7 @@
         <v>108</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
@@ -5490,7 +5514,7 @@
     </row>
     <row r="2" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="59" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B2" s="60"/>
       <c r="C2" s="37" t="s">
@@ -5500,18 +5524,18 @@
         <v>16</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F2" s="48" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="G2" s="48" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="H2" s="48"/>
       <c r="I2" s="48"/>
       <c r="J2" s="48" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="K2" s="48"/>
       <c r="L2" s="48"/>
@@ -5604,7 +5628,7 @@
         <v>112</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E8" s="48"/>
     </row>
@@ -5626,7 +5650,7 @@
         <v>113</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
@@ -5645,7 +5669,7 @@
         <v>108</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
@@ -5807,7 +5831,7 @@
     </row>
     <row r="2" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="59" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B2" s="60"/>
       <c r="C2" s="52" t="s">
@@ -5913,7 +5937,7 @@
         <v>112</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E8" s="48"/>
     </row>
@@ -5932,10 +5956,10 @@
     <row r="11" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="60"/>
       <c r="C11" s="61" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
@@ -5951,10 +5975,10 @@
     <row r="14" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="60"/>
       <c r="C14" s="61" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
@@ -6116,7 +6140,7 @@
     </row>
     <row r="2" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="59" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B2" s="60"/>
       <c r="C2" s="52" t="s">
@@ -6222,7 +6246,7 @@
         <v>112</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E8" s="48"/>
     </row>
@@ -6244,7 +6268,7 @@
         <v>113</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
@@ -6263,7 +6287,7 @@
         <v>108</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
@@ -6280,10 +6304,10 @@
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17" s="49"/>
       <c r="C17" s="61" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="D17" s="62" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
@@ -6376,7 +6400,7 @@
   <dimension ref="A1:N37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="D14" sqref="D14:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -6432,7 +6456,7 @@
     </row>
     <row r="2" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="59" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B2" s="60"/>
       <c r="C2" s="37" t="s">
@@ -6442,19 +6466,19 @@
         <v>16</v>
       </c>
       <c r="E2" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="G2" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="H2" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="J2" s="48" t="s">
         <v>153</v>
-      </c>
-      <c r="F2" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="G2" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="H2" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="J2" s="48" t="s">
-        <v>160</v>
       </c>
       <c r="K2" s="48"/>
       <c r="L2" s="48"/>
@@ -6547,7 +6571,7 @@
         <v>112</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>150</v>
+        <v>211</v>
       </c>
       <c r="E8" s="48"/>
     </row>
@@ -6569,7 +6593,7 @@
         <v>113</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>151</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
@@ -6588,7 +6612,7 @@
         <v>108</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>152</v>
+        <v>213</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
@@ -6753,7 +6777,7 @@
     </row>
     <row r="2" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="59" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B2" s="60"/>
       <c r="C2" s="37" t="s">
@@ -6763,17 +6787,17 @@
         <v>16</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="H2" s="48"/>
       <c r="J2" s="48" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="K2" s="48"/>
       <c r="L2" s="48"/>
@@ -6790,18 +6814,18 @@
         <v>24</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="F3" s="34" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="H3" s="48"/>
       <c r="I3" s="48"/>
       <c r="J3" s="48" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="K3" s="48"/>
       <c r="L3" s="48"/>
@@ -6818,20 +6842,20 @@
         <v>32</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="F4" s="34" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="G4" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="H4" s="29" t="s">
         <v>167</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>174</v>
       </c>
       <c r="I4" s="48"/>
       <c r="J4" s="48" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="K4" s="48"/>
       <c r="L4" s="48"/>
@@ -6841,26 +6865,26 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="B5" s="60"/>
       <c r="C5" s="61" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="D5" s="62" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="E5" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="H5" s="29" t="s">
         <v>168</v>
-      </c>
-      <c r="F5" s="34" t="s">
-        <v>169</v>
-      </c>
-      <c r="G5" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="H5" s="29" t="s">
-        <v>175</v>
       </c>
       <c r="I5" s="48"/>
       <c r="J5" s="48" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="K5" s="48"/>
       <c r="L5" s="48"/>
@@ -6872,20 +6896,20 @@
       <c r="C6" s="61"/>
       <c r="D6" s="62"/>
       <c r="E6" s="36" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="G6" s="29" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="H6" s="29" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="I6" s="48"/>
       <c r="J6" s="48" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="K6" s="48"/>
       <c r="L6" s="48"/>
@@ -6904,7 +6928,7 @@
         <v>112</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="E8" s="48"/>
     </row>
@@ -6926,7 +6950,7 @@
         <v>113</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
@@ -6945,7 +6969,7 @@
         <v>108</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
@@ -6965,7 +6989,7 @@
         <v>123</v>
       </c>
       <c r="D17" s="62" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="2:4" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
@@ -6981,10 +7005,10 @@
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20" s="49"/>
       <c r="C20" s="61" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D20" s="62" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
@@ -7321,7 +7345,7 @@
     </row>
     <row r="2" spans="1:12" s="34" customFormat="1" ht="45" x14ac:dyDescent="0.15">
       <c r="A2" s="29" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C2" s="30" t="s">
         <v>15</v>
@@ -7432,20 +7456,20 @@
         <v>16</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="H2" s="48" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="I2" s="48"/>
       <c r="J2" s="48" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="K2" s="48"/>
       <c r="L2" s="48"/>
@@ -7667,8 +7691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -7678,7 +7702,8 @@
     <col min="3" max="3" width="15.75" style="42" customWidth="1"/>
     <col min="4" max="4" width="28.375" style="42" customWidth="1"/>
     <col min="5" max="5" width="13.875" style="42" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="42"/>
+    <col min="6" max="6" width="17.5" style="42" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="42"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="30" x14ac:dyDescent="0.25">
@@ -7731,14 +7756,20 @@
       <c r="D2" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
+      <c r="E2" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="F2" s="64" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
       <c r="M2" s="48"/>
       <c r="N2" s="48"/>
       <c r="O2" s="48"/>
@@ -7975,7 +8006,7 @@
   <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -8140,7 +8171,7 @@
         <v>122</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>125</v>
+        <v>207</v>
       </c>
       <c r="E8" s="48"/>
     </row>
@@ -8162,7 +8193,7 @@
         <v>113</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>126</v>
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
@@ -8181,7 +8212,7 @@
         <v>118</v>
       </c>
       <c r="D14" s="62" t="s">
-        <v>127</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
@@ -8201,7 +8232,7 @@
         <v>124</v>
       </c>
       <c r="D17" s="62" t="s">
-        <v>128</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
@@ -8345,7 +8376,7 @@
     </row>
     <row r="2" spans="1:14" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="59" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B2" s="60"/>
       <c r="C2" s="37" t="s">
@@ -8355,20 +8386,20 @@
         <v>16</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F2" s="48" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G2" s="48" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="H2" s="48" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="I2" s="48"/>
       <c r="J2" s="48" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="K2" s="48"/>
       <c r="L2" s="48"/>
@@ -8461,7 +8492,7 @@
         <v>122</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E8" s="48"/>
     </row>
@@ -8480,10 +8511,10 @@
     <row r="11" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B11" s="60"/>
       <c r="C11" s="61" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D11" s="62" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="15.6" customHeight="1" x14ac:dyDescent="0.15">
@@ -8661,7 +8692,7 @@
     </row>
     <row r="2" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="59" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B2" s="60"/>
       <c r="C2" s="37" t="s">
@@ -8772,7 +8803,7 @@
         <v>112</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E8" s="48"/>
     </row>
@@ -8968,7 +8999,7 @@
     </row>
     <row r="2" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="59" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B2" s="60"/>
       <c r="C2" s="50" t="s">
@@ -9076,10 +9107,10 @@
     <row r="8" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="60"/>
       <c r="C8" s="61" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D8" s="62" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E8" s="48"/>
     </row>
